--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_running.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,443 +483,443 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_targeted_threat_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02544062078272605</v>
+        <v>0.01565452091767881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01768955797903166</v>
+        <v>0.005310573731626364</v>
       </c>
       <c r="D2" t="n">
-        <v>1.492352632323769</v>
+        <v>194.78</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004440853216942065</v>
+        <v>0.01429321186227971</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004161117525816784</v>
+        <v>0.01099502757997121</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02026315789473684</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01081081081081081</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03128205128205128</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02351351351351351</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_threat_per_match</t>
+          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.360201754385965</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="C3" t="n">
-        <v>1.851026842632106</v>
+        <v>0.003606237816764132</v>
       </c>
       <c r="D3" t="n">
-        <v>1.451238295980887</v>
+        <v>184.41</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3291581102713441</v>
+        <v>0.02293403053845938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.289013117291962</v>
+        <v>0.009520847223814313</v>
       </c>
       <c r="G3" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.136052631578947</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.686578947368421</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="J3" t="n">
-        <v>2.250810810810811</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6591538461538462</v>
+        <v>0.05935672514619883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4978062009377799</v>
+        <v>0.02665033454507139</v>
       </c>
       <c r="D4" t="n">
-        <v>1.437862875222503</v>
+        <v>122.72</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09187510005194083</v>
+        <v>0.05331348378953706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09689829416698943</v>
+        <v>0.0316286048963669</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5431578947368422</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3402631578947368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7660526315789473</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7048648648648648</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.937314439946019</v>
+        <v>0.05951417004048583</v>
       </c>
       <c r="C5" t="n">
-        <v>2.249744481323428</v>
+        <v>0.03044886992255413</v>
       </c>
       <c r="D5" t="n">
-        <v>1.422219231155455</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3257527144369008</v>
+        <v>0.07383408800417748</v>
       </c>
       <c r="F5" t="n">
-        <v>0.431281182609265</v>
+        <v>0.03046908524921185</v>
       </c>
       <c r="G5" t="n">
-        <v>2.578947368421053</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.594594594594595</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.41025641025641</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>3.216216216216216</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>support_runs_threat_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5521093117408907</v>
+        <v>0.03758434547908231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4731044202096834</v>
+        <v>0.02138717665033454</v>
       </c>
       <c r="D6" t="n">
-        <v>1.420585524838794</v>
+        <v>75.73</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02820911903786186</v>
+        <v>0.03162908231766076</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05103959987708788</v>
+        <v>0.02312336999086896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5192307692307693</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3705263157894737</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5905263157894737</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5536842105263158</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_received_per_match</t>
+          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.428654970760234</v>
+        <v>0.06491228070175438</v>
       </c>
       <c r="C7" t="n">
-        <v>1.832898688161846</v>
+        <v>0.03912596807333649</v>
       </c>
       <c r="D7" t="n">
-        <v>1.415505087096218</v>
+        <v>65.91</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3734777820773461</v>
+        <v>0.06404109560857536</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3516395076851253</v>
+        <v>0.0412284252830686</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.297297297297297</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>2.648648648648649</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_received_threat_per_match</t>
+          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2354163292847503</v>
+        <v>0.1632478632478632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1727332859174964</v>
+        <v>0.1020652231178547</v>
       </c>
       <c r="D8" t="n">
-        <v>1.414494507948686</v>
+        <v>59.94</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03915354464514289</v>
+        <v>0.08235534886523686</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03776982017713217</v>
+        <v>0.04975098122049314</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1778947368421052</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1102631578947369</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2758974358974359</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2383783783783784</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_received_per_match</t>
+          <t>count_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.768600989653621</v>
+        <v>0.3305218173639226</v>
       </c>
       <c r="C9" t="n">
-        <v>1.145930140666983</v>
+        <v>0.2104288499025341</v>
       </c>
       <c r="D9" t="n">
-        <v>1.407266264287801</v>
+        <v>57.07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3950106064499603</v>
+        <v>0.1216065129327414</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3661236046865539</v>
+        <v>0.08003609808859982</v>
       </c>
       <c r="G9" t="n">
-        <v>1.076923076923077</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="I9" t="n">
-        <v>2.055555555555555</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="J9" t="n">
-        <v>2.184210526315789</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_received_threat_per_match</t>
+          <t>count_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03456545209176788</v>
+        <v>0.1480206927575349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02272646330541068</v>
+        <v>0.09564564564564562</v>
       </c>
       <c r="D10" t="n">
-        <v>1.402273505505057</v>
+        <v>54.76</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007923778434932569</v>
+        <v>0.0433239485724456</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006971405180523621</v>
+        <v>0.05935336931918882</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02256410256410257</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01459459459459459</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0431578947368421</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04236842105263158</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.7838056680162</v>
+        <v>1.768600989653621</v>
       </c>
       <c r="C11" t="n">
-        <v>23.31963542489858</v>
+        <v>1.145930140666983</v>
       </c>
       <c r="D11" t="n">
-        <v>1.399744305476606</v>
+        <v>54.34</v>
       </c>
       <c r="E11" t="n">
-        <v>2.535479517213568</v>
+        <v>0.3950106064499603</v>
       </c>
       <c r="F11" t="n">
-        <v>3.637214346502427</v>
+        <v>0.3661236046865539</v>
       </c>
       <c r="G11" t="n">
-        <v>25.60526315789474</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="H11" t="n">
-        <v>15.39473684210526</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="I11" t="n">
-        <v>31.68421052631579</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="J11" t="n">
-        <v>28</v>
+        <v>2.184210526315789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_per_match</t>
+          <t>underlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.99635627530364</v>
+        <v>0.03456545209176788</v>
       </c>
       <c r="C12" t="n">
-        <v>24.24060376165639</v>
+        <v>0.02272646330541068</v>
       </c>
       <c r="D12" t="n">
-        <v>1.395381349129569</v>
+        <v>52.09</v>
       </c>
       <c r="E12" t="n">
-        <v>2.700467225181028</v>
+        <v>0.007923778434932569</v>
       </c>
       <c r="F12" t="n">
-        <v>3.840801389437518</v>
+        <v>0.006971405180523621</v>
       </c>
       <c r="G12" t="n">
-        <v>26.81578947368421</v>
+        <v>0.02256410256410257</v>
       </c>
       <c r="H12" t="n">
-        <v>15.97368421052632</v>
+        <v>0.01459459459459459</v>
       </c>
       <c r="I12" t="n">
-        <v>33.36842105263158</v>
+        <v>0.0431578947368421</v>
       </c>
       <c r="J12" t="n">
-        <v>29.54054054054054</v>
+        <v>0.04236842105263158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_in_sample</t>
+          <t>count_dangerous_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.99635627530364</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C13" t="n">
-        <v>24.24060376165639</v>
+        <v>0.0107186133501923</v>
       </c>
       <c r="D13" t="n">
-        <v>1.395381349129569</v>
+        <v>-50.9</v>
       </c>
       <c r="E13" t="n">
-        <v>2.700467225181028</v>
+        <v>0.01176877882894626</v>
       </c>
       <c r="F13" t="n">
-        <v>3.840801389437518</v>
+        <v>0.01359295395919965</v>
       </c>
       <c r="G13" t="n">
-        <v>26.81578947368421</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>15.97368421052632</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.36842105263158</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J13" t="n">
-        <v>29.54054054054054</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_received_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.099910031488979</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>2.405281597386861</v>
+        <v>0.02138717665033455</v>
       </c>
       <c r="D14" t="n">
-        <v>1.391404719702473</v>
+        <v>-50.78</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3555903107962306</v>
+        <v>0.01441375151329385</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4705624361185042</v>
+        <v>0.02061356028695086</v>
       </c>
       <c r="G14" t="n">
-        <v>2.631578947368421</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.526315789473684</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.555555555555555</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J14" t="n">
-        <v>3.297297297297297</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="15">
@@ -936,7 +935,7 @@
         <v>0.01640553711606343</v>
       </c>
       <c r="D15" t="n">
-        <v>1.379625359390189</v>
+        <v>49.89</v>
       </c>
       <c r="E15" t="n">
         <v>0.006852887628051891</v>
@@ -960,3605 +959,3265 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_received_threat_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0188740440845704</v>
+        <v>0.2284750337381916</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01348614403877562</v>
+        <v>0.1546888994257416</v>
       </c>
       <c r="D16" t="n">
-        <v>1.362903835444971</v>
+        <v>47.7</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005086056378966981</v>
+        <v>0.07614762917640998</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002699178483716684</v>
+        <v>0.05367538172510163</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01289473684210526</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H16" t="n">
-        <v>0.008648648648648649</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01789473684210527</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
+          <t>count_dangerous_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.884457939721098</v>
+        <v>0.74212775528565</v>
       </c>
       <c r="C17" t="n">
-        <v>2.264235287919498</v>
+        <v>0.5033875981244402</v>
       </c>
       <c r="D17" t="n">
-        <v>1.361467598732458</v>
+        <v>47.43</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3723489687701702</v>
+        <v>0.1554710472771162</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4285592242652512</v>
+        <v>0.1791074881564765</v>
       </c>
       <c r="G17" t="n">
-        <v>2.473684210526316</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="H17" t="n">
-        <v>1.473684210526316</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="I17" t="n">
-        <v>3.472222222222222</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="J17" t="n">
-        <v>3.081081081081081</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_targeted_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.041700404858299</v>
+        <v>0.217791273054431</v>
       </c>
       <c r="C18" t="n">
-        <v>6.463231652705337</v>
+        <v>0.1493282756440651</v>
       </c>
       <c r="D18" t="n">
-        <v>1.34619729192948</v>
+        <v>45.85</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6306173256511676</v>
+        <v>0.08552709583834189</v>
       </c>
       <c r="F18" t="n">
-        <v>1.149834158325697</v>
+        <v>0.08287491549058482</v>
       </c>
       <c r="G18" t="n">
-        <v>7.263157894736842</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H18" t="n">
-        <v>4.315789473684211</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="I18" t="n">
-        <v>8.789473684210526</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_threat_per_match</t>
+          <t>count_dangerous_underlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09041587944219523</v>
+        <v>0.5557579847053532</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06951475159369895</v>
+        <v>0.3851456719877772</v>
       </c>
       <c r="D19" t="n">
-        <v>1.336686335469665</v>
+        <v>44.3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01191209327862253</v>
+        <v>0.07183252848227642</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01457327329357935</v>
+        <v>0.1540968009427381</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1002777777777778</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="J19" t="n">
-        <v>0.102972972972973</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
+          <t>pulling_half_space_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.661853351327035</v>
+        <v>0.02544062078272605</v>
       </c>
       <c r="C20" t="n">
-        <v>6.209928349402035</v>
+        <v>0.01768955797903166</v>
       </c>
       <c r="D20" t="n">
-        <v>1.320019632061129</v>
+        <v>43.82</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5430658828448487</v>
+        <v>0.004440853216942065</v>
       </c>
       <c r="F20" t="n">
-        <v>1.101510832270503</v>
+        <v>0.004161117525816784</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>0.02026315789473684</v>
       </c>
       <c r="H20" t="n">
-        <v>4.210526315789473</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="I20" t="n">
-        <v>8.222222222222221</v>
+        <v>0.03128205128205128</v>
       </c>
       <c r="J20" t="n">
-        <v>7.864864864864865</v>
+        <v>0.02351351351351351</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.377800269905533</v>
+        <v>0.1593117408906883</v>
       </c>
       <c r="C21" t="n">
-        <v>6.970902481428796</v>
+        <v>0.1119145461250724</v>
       </c>
       <c r="D21" t="n">
-        <v>1.308404072405335</v>
+        <v>42.35</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8342865545391275</v>
+        <v>0.08311805967510395</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9873516898494341</v>
+        <v>0.05025554073913233</v>
       </c>
       <c r="G21" t="n">
-        <v>7.421052631578948</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H21" t="n">
-        <v>4.815789473684211</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.368421052631579</v>
+        <v>0.25</v>
       </c>
       <c r="J21" t="n">
-        <v>8.394736842105264</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_received_per_match</t>
+          <t>count_dangerous_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.635290148448043</v>
+        <v>0.8621682411156095</v>
       </c>
       <c r="C22" t="n">
-        <v>6.254433380749171</v>
+        <v>0.6127337864179968</v>
       </c>
       <c r="D22" t="n">
-        <v>1.306930809111961</v>
+        <v>40.71</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2959833688697603</v>
+        <v>0.1335922006069725</v>
       </c>
       <c r="F22" t="n">
-        <v>1.104254476855095</v>
+        <v>0.2188936128770642</v>
       </c>
       <c r="G22" t="n">
-        <v>7.461538461538462</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="H22" t="n">
-        <v>4.552631578947368</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="I22" t="n">
-        <v>8.157894736842104</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="J22" t="n">
-        <v>8.162162162162161</v>
+        <v>1.131578947368421</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_targeted_threat_per_match</t>
+          <t>pulling_half_space_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02728879892037787</v>
+        <v>0.0188740440845704</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01981262841789157</v>
+        <v>0.01348614403877562</v>
       </c>
       <c r="D23" t="n">
-        <v>1.278356727717627</v>
+        <v>39.95</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007073790020057115</v>
+        <v>0.005086056378966981</v>
       </c>
       <c r="F23" t="n">
-        <v>0.005016333351198271</v>
+        <v>0.002699178483716684</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.01289473684210526</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01210526315789474</v>
+        <v>0.008648648648648649</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03833333333333334</v>
+        <v>0.02615384615384616</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03135135135135135</v>
+        <v>0.01789473684210527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>support_runs_targeted_threat_per_match</t>
+          <t>underlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1451578947368421</v>
+        <v>0.04980971659919028</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1204307201938781</v>
+        <v>0.03610283968178705</v>
       </c>
       <c r="D24" t="n">
-        <v>1.277381744708725</v>
+        <v>37.97</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01299954423047444</v>
+        <v>0.009111083948167247</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01841932936345165</v>
+        <v>0.01033705561395674</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1233333333333334</v>
+        <v>0.03615384615384615</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08638888888888889</v>
+        <v>0.02405405405405405</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1557894736842105</v>
+        <v>0.06052631578947368</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1518421052631579</v>
+        <v>0.06078947368421053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_per_match</t>
+          <t>coming_short_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.63954116059379</v>
+        <v>0.02728879892037787</v>
       </c>
       <c r="C25" t="n">
-        <v>30.93229018492176</v>
+        <v>0.01981262841789157</v>
       </c>
       <c r="D25" t="n">
-        <v>1.26093088268935</v>
+        <v>37.73</v>
       </c>
       <c r="E25" t="n">
-        <v>2.21492938869965</v>
+        <v>0.007073790020057115</v>
       </c>
       <c r="F25" t="n">
-        <v>4.852304362910053</v>
+        <v>0.005016333351198271</v>
       </c>
       <c r="G25" t="n">
-        <v>33.55263157894737</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="H25" t="n">
-        <v>24.15789473684211</v>
+        <v>0.01210526315789474</v>
       </c>
       <c r="I25" t="n">
-        <v>39.33333333333334</v>
+        <v>0.03833333333333334</v>
       </c>
       <c r="J25" t="n">
-        <v>40.94594594594594</v>
+        <v>0.03135135135135135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_in_sample</t>
+          <t>count_underlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.63954116059379</v>
+        <v>2.473369320737742</v>
       </c>
       <c r="C26" t="n">
-        <v>30.93229018492176</v>
+        <v>1.802715873768505</v>
       </c>
       <c r="D26" t="n">
-        <v>1.26093088268935</v>
+        <v>37.2</v>
       </c>
       <c r="E26" t="n">
-        <v>2.21492938869965</v>
+        <v>0.4892000971935042</v>
       </c>
       <c r="F26" t="n">
-        <v>4.852304362910053</v>
+        <v>0.5059658209640391</v>
       </c>
       <c r="G26" t="n">
-        <v>33.55263157894737</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="H26" t="n">
-        <v>24.15789473684211</v>
+        <v>1.135135135135135</v>
       </c>
       <c r="I26" t="n">
-        <v>39.33333333333334</v>
+        <v>2.789473684210526</v>
       </c>
       <c r="J26" t="n">
-        <v>40.94594594594594</v>
+        <v>3.078947368421053</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_received_per_match</t>
+          <t>cross_receiver_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.74212775528565</v>
+        <v>0.2354163292847503</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5033875981244403</v>
+        <v>0.1727332859174965</v>
       </c>
       <c r="D27" t="n">
-        <v>1.230113427509092</v>
+        <v>36.29</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1554710472771162</v>
+        <v>0.03915354464514289</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1791074881564765</v>
+        <v>0.03776982017713217</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.1778947368421052</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.1102631578947369</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.2758974358974359</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.2383783783783784</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04980971659919028</v>
+        <v>0.1766531713900135</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03610283968178705</v>
+        <v>0.1300326642431906</v>
       </c>
       <c r="D28" t="n">
-        <v>1.228774934655378</v>
+        <v>35.85</v>
       </c>
       <c r="E28" t="n">
-        <v>0.009111083948167247</v>
+        <v>0.09426477307708005</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01033705561395674</v>
+        <v>0.07074495159983984</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03615384615384615</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02405405405405405</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06052631578947368</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06078947368421053</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_shot_per_match</t>
+          <t>overlap_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3305218173639226</v>
+        <v>0.06374988753936123</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2104288499025341</v>
+        <v>0.04739286655076128</v>
       </c>
       <c r="D29" t="n">
-        <v>1.224777981105478</v>
+        <v>34.51</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1216065129327414</v>
+        <v>0.01707483604052479</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08003609808859982</v>
+        <v>0.01379959849047441</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.05157894736842105</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.02891891891891892</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.09277777777777778</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.08473684210526317</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_targeted_per_match</t>
+          <t>count_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.473369320737742</v>
+        <v>2.428654970760234</v>
       </c>
       <c r="C30" t="n">
-        <v>1.802715873768505</v>
+        <v>1.832898688161846</v>
       </c>
       <c r="D30" t="n">
-        <v>1.209202895210909</v>
+        <v>32.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4892000971935042</v>
+        <v>0.3734777820773461</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5059658209640391</v>
+        <v>0.3516395076851253</v>
       </c>
       <c r="G30" t="n">
-        <v>1.615384615384615</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>1.135135135135135</v>
+        <v>1.297297297297297</v>
       </c>
       <c r="I30" t="n">
-        <v>2.789473684210526</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.078947368421053</v>
+        <v>2.648648648648649</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_targeted_per_match</t>
+          <t>cross_receiver_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.90389113810166</v>
+        <v>0.6591538461538462</v>
       </c>
       <c r="C31" t="n">
-        <v>12.57647120805015</v>
+        <v>0.4978062009377799</v>
       </c>
       <c r="D31" t="n">
-        <v>1.197039716768312</v>
+        <v>32.41</v>
       </c>
       <c r="E31" t="n">
-        <v>1.553840771894302</v>
+        <v>0.09187510005194083</v>
       </c>
       <c r="F31" t="n">
-        <v>1.937924519402711</v>
+        <v>0.09689829416698946</v>
       </c>
       <c r="G31" t="n">
-        <v>13.2051282051282</v>
+        <v>0.5431578947368422</v>
       </c>
       <c r="H31" t="n">
-        <v>9.368421052631579</v>
+        <v>0.3402631578947368</v>
       </c>
       <c r="I31" t="n">
-        <v>16.86842105263158</v>
+        <v>0.7660526315789473</v>
       </c>
       <c r="J31" t="n">
-        <v>15.64864864864865</v>
+        <v>0.7048648648648649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_targeted_per_match</t>
+          <t>count_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.985425101214575</v>
+        <v>0.2859424201529465</v>
       </c>
       <c r="C32" t="n">
-        <v>1.570973605184131</v>
+        <v>0.2159633317528054</v>
       </c>
       <c r="D32" t="n">
-        <v>1.193866280749641</v>
+        <v>32.4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2035716745393448</v>
+        <v>0.07824576131868782</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3498418723364577</v>
+        <v>0.08013278772387744</v>
       </c>
       <c r="G32" t="n">
-        <v>1.769230769230769</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="I32" t="n">
-        <v>2.315789473684211</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J32" t="n">
-        <v>2.135135135135135</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_received_per_match</t>
+          <t>count_dangerous_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.10836707152497</v>
+        <v>0.9161943319838057</v>
       </c>
       <c r="C33" t="n">
-        <v>7.9361519414151</v>
+        <v>0.6923739529002686</v>
       </c>
       <c r="D33" t="n">
-        <v>1.187149362172194</v>
+        <v>32.33</v>
       </c>
       <c r="E33" t="n">
-        <v>1.627714683076889</v>
+        <v>0.1637275195277925</v>
       </c>
       <c r="F33" t="n">
-        <v>1.799581578580872</v>
+        <v>0.2527007969660569</v>
       </c>
       <c r="G33" t="n">
-        <v>7.263157894736842</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H33" t="n">
-        <v>5.447368421052632</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="I33" t="n">
-        <v>11.28947368421053</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="J33" t="n">
-        <v>11.42105263157895</v>
+        <v>1.236842105263158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_threat_per_match</t>
+          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.146149572649573</v>
+        <v>0.1644174538911381</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9568428165007112</v>
+        <v>0.1251646383225331</v>
       </c>
       <c r="D34" t="n">
-        <v>1.185267943048627</v>
+        <v>31.36</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1273324941485441</v>
+        <v>0.04903799698007349</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1680284872285414</v>
+        <v>0.05715858707306177</v>
       </c>
       <c r="G34" t="n">
-        <v>1.042631578947368</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7730555555555556</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I34" t="n">
-        <v>1.366388888888889</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J34" t="n">
-        <v>1.298378378378378</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.520107962213225</v>
+        <v>0.01608187134502924</v>
       </c>
       <c r="C35" t="n">
-        <v>1.219042726937464</v>
+        <v>0.02318897845213634</v>
       </c>
       <c r="D35" t="n">
-        <v>1.18459543539906</v>
+        <v>-30.65</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09707387108603405</v>
+        <v>0.01469280061567382</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2792932369964938</v>
+        <v>0.02225739647349381</v>
       </c>
       <c r="G35" t="n">
-        <v>1.394736842105263</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7368421052631579</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.666666666666667</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="J35" t="n">
-        <v>1.810810810810811</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_targeted_per_match</t>
+          <t>count_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13.4204228520018</v>
+        <v>2.937314439946019</v>
       </c>
       <c r="C36" t="n">
-        <v>11.93716084505558</v>
+        <v>2.249744481323428</v>
       </c>
       <c r="D36" t="n">
-        <v>1.168270229585911</v>
+        <v>30.56</v>
       </c>
       <c r="E36" t="n">
-        <v>1.110521576734418</v>
+        <v>0.3257527144369008</v>
       </c>
       <c r="F36" t="n">
-        <v>1.2718126957302</v>
+        <v>0.431281182609265</v>
       </c>
       <c r="G36" t="n">
-        <v>11.94736842105263</v>
+        <v>2.578947368421053</v>
       </c>
       <c r="H36" t="n">
-        <v>9.236842105263158</v>
+        <v>1.594594594594595</v>
       </c>
       <c r="I36" t="n">
-        <v>14.72222222222222</v>
+        <v>3.41025641025641</v>
       </c>
       <c r="J36" t="n">
-        <v>13.94736842105263</v>
+        <v>3.216216216216216</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2284750337381916</v>
+        <v>0.05337381916329285</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1546888994257416</v>
+        <v>0.04092250144881723</v>
       </c>
       <c r="D37" t="n">
-        <v>1.157657522832612</v>
+        <v>30.43</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07614762917640998</v>
+        <v>0.05330014996741034</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05367538172510163</v>
+        <v>0.03310540249810451</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0.131578947368421</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="J37" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_targeted_per_match</t>
+          <t>pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8621682411156095</v>
+        <v>0.09041587944219523</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6127337864179968</v>
+        <v>0.06951475159369896</v>
       </c>
       <c r="D38" t="n">
-        <v>1.142186036518877</v>
+        <v>30.07</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1335922006069725</v>
+        <v>0.01191209327862253</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2188936128770642</v>
+        <v>0.01457327329357935</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>1.078947368421053</v>
+        <v>0.1002777777777778</v>
       </c>
       <c r="J38" t="n">
-        <v>1.131578947368421</v>
+        <v>0.102972972972973</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_received_per_match</t>
+          <t>count_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5557579847053532</v>
+        <v>2.24646873594242</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3851456719877772</v>
+        <v>1.74034034034034</v>
       </c>
       <c r="D39" t="n">
-        <v>1.141200896974826</v>
+        <v>29.08</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07183252848227642</v>
+        <v>0.392985697609222</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1540968009427381</v>
+        <v>0.5435610234301476</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4615384615384616</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1842105263157895</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6578947368421053</v>
+        <v>2.710526315789474</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8157894736842105</v>
+        <v>2.973684210526316</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.6945569050832209</v>
+        <v>3.099910031488979</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5399109635951741</v>
+        <v>2.405281597386861</v>
       </c>
       <c r="D40" t="n">
-        <v>1.133690992279835</v>
+        <v>28.88</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1549927121710436</v>
+        <v>0.3555903107962306</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1227719621647124</v>
+        <v>0.4705624361185042</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3783783783783784</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8947368421052632</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7567567567567568</v>
+        <v>3.297297297297297</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_received_per_match</t>
+          <t>count_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11.43670715249663</v>
+        <v>0.6945569050832209</v>
       </c>
       <c r="C41" t="n">
-        <v>10.14497128707655</v>
+        <v>0.5399109635951741</v>
       </c>
       <c r="D41" t="n">
-        <v>1.13240934424502</v>
+        <v>28.64</v>
       </c>
       <c r="E41" t="n">
-        <v>1.085792652299693</v>
+        <v>0.1549927121710436</v>
       </c>
       <c r="F41" t="n">
-        <v>1.143383184889132</v>
+        <v>0.1227719621647124</v>
       </c>
       <c r="G41" t="n">
-        <v>10.13157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
-        <v>7.657894736842105</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="I41" t="n">
-        <v>12.83333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="J41" t="n">
-        <v>12.05263157894737</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_shot_per_match</t>
+          <t>overlap_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.630994152046783</v>
+        <v>0.07833423301844354</v>
       </c>
       <c r="C42" t="n">
-        <v>1.320365101944049</v>
+        <v>0.06111527316790474</v>
       </c>
       <c r="D42" t="n">
-        <v>1.122880518823561</v>
+        <v>28.17</v>
       </c>
       <c r="E42" t="n">
-        <v>0.11291245273588</v>
+        <v>0.01598383721406147</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3066220147893173</v>
+        <v>0.0163184926058692</v>
       </c>
       <c r="G42" t="n">
-        <v>1.473684210526316</v>
+        <v>0.06710526315789474</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="I42" t="n">
-        <v>1.777777777777778</v>
+        <v>0.1061111111111111</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>0.1044736842105263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_received_threat_per_match</t>
+          <t>cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1923178137651822</v>
+        <v>2.360201754385965</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1602400821874506</v>
+        <v>1.851026842632106</v>
       </c>
       <c r="D43" t="n">
-        <v>1.107861150472857</v>
+        <v>27.51</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0114865948209898</v>
+        <v>0.3291581102713441</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03249082974846224</v>
+        <v>0.2890131172919619</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1812820512820513</v>
+        <v>1.97</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1066666666666667</v>
+        <v>1.136052631578947</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2108333333333333</v>
+        <v>2.686578947368421</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2221621621621622</v>
+        <v>2.250810810810811</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>support_runs_received_threat_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1113268106162843</v>
+        <v>2.884457939721098</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09331858173963438</v>
+        <v>2.264235287919498</v>
       </c>
       <c r="D44" t="n">
-        <v>1.107048853664231</v>
+        <v>27.39</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01326394753685005</v>
+        <v>0.3723489687701702</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01618943678558971</v>
+        <v>0.4285592242652512</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09179487179487179</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07027777777777777</v>
+        <v>1.473684210526316</v>
       </c>
       <c r="I44" t="n">
-        <v>0.125</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1163157894736842</v>
+        <v>3.081081081081081</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_targeted_per_match</t>
+          <t>count_coming_short_runs_received_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10.82645074224022</v>
+        <v>10.10836707152497</v>
       </c>
       <c r="C45" t="n">
-        <v>8.820831357673462</v>
+        <v>7.936151941415099</v>
       </c>
       <c r="D45" t="n">
-        <v>1.073399612855973</v>
+        <v>27.37</v>
       </c>
       <c r="E45" t="n">
-        <v>1.775049556826218</v>
+        <v>1.627714683076889</v>
       </c>
       <c r="F45" t="n">
-        <v>1.897100025418392</v>
+        <v>1.799581578580872</v>
       </c>
       <c r="G45" t="n">
-        <v>7.763157894736842</v>
+        <v>7.263157894736842</v>
       </c>
       <c r="H45" t="n">
-        <v>6.210526315789473</v>
+        <v>5.447368421052632</v>
       </c>
       <c r="I45" t="n">
-        <v>12.31578947368421</v>
+        <v>11.28947368421053</v>
       </c>
       <c r="J45" t="n">
-        <v>12.5</v>
+        <v>11.42105263157895</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_received_threat_per_match</t>
+          <t>count_dangerous_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06374988753936123</v>
+        <v>1.985425101214575</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04739286655076128</v>
+        <v>1.570973605184131</v>
       </c>
       <c r="D46" t="n">
-        <v>1.068081637231685</v>
+        <v>26.38</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01707483604052479</v>
+        <v>0.2035716745393448</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01379959849047441</v>
+        <v>0.3498418723364577</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05157894736842105</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02891891891891892</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I46" t="n">
-        <v>0.09277777777777778</v>
+        <v>2.315789473684211</v>
       </c>
       <c r="J46" t="n">
-        <v>0.08473684210526317</v>
+        <v>2.135135135135135</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1838090418353576</v>
+        <v>0.3176563202878993</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1611705126178811</v>
+        <v>0.2515752594699963</v>
       </c>
       <c r="D47" t="n">
-        <v>1.066507256042276</v>
+        <v>26.27</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02750802587765592</v>
+        <v>0.07696801516896117</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02066447818240263</v>
+        <v>0.09641071513793061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1547368421052631</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1152631578947368</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2191666666666666</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_in_sample</t>
+          <t>underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10.42759784075574</v>
+        <v>0.1271538461538462</v>
       </c>
       <c r="C48" t="n">
-        <v>8.637764079869346</v>
+        <v>0.1016977503819609</v>
       </c>
       <c r="D48" t="n">
-        <v>1.051354080941132</v>
+        <v>25.03</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7960902760476362</v>
+        <v>0.0206369347418396</v>
       </c>
       <c r="F48" t="n">
-        <v>1.869890627134671</v>
+        <v>0.02675260552782421</v>
       </c>
       <c r="G48" t="n">
-        <v>9.394736842105264</v>
+        <v>0.0941025641025641</v>
       </c>
       <c r="H48" t="n">
-        <v>6.052631578947368</v>
+        <v>0.06526315789473684</v>
       </c>
       <c r="I48" t="n">
-        <v>11.25641025641026</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="J48" t="n">
-        <v>12.43243243243243</v>
+        <v>0.1697368421052632</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10.42759784075574</v>
+        <v>1.520107962213225</v>
       </c>
       <c r="C49" t="n">
-        <v>8.637764079869346</v>
+        <v>1.219042726937464</v>
       </c>
       <c r="D49" t="n">
-        <v>1.051354080941132</v>
+        <v>24.7</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7960902760476362</v>
+        <v>0.09707387108603405</v>
       </c>
       <c r="F49" t="n">
-        <v>1.869890627134671</v>
+        <v>0.2792932369964938</v>
       </c>
       <c r="G49" t="n">
-        <v>9.394736842105264</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="H49" t="n">
-        <v>6.052631578947368</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I49" t="n">
-        <v>11.25641025641026</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="J49" t="n">
-        <v>12.43243243243243</v>
+        <v>1.810810810810811</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_received_per_match</t>
+          <t>count_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>16.4321412505623</v>
+        <v>8.041700404858299</v>
       </c>
       <c r="C50" t="n">
-        <v>14.66727516990675</v>
+        <v>6.463231652705337</v>
       </c>
       <c r="D50" t="n">
-        <v>1.031653808676702</v>
+        <v>24.42</v>
       </c>
       <c r="E50" t="n">
-        <v>2.092461759548031</v>
+        <v>0.6306173256511676</v>
       </c>
       <c r="F50" t="n">
-        <v>1.692905493084479</v>
+        <v>1.149834158325697</v>
       </c>
       <c r="G50" t="n">
-        <v>13.78947368421053</v>
+        <v>7.263157894736842</v>
       </c>
       <c r="H50" t="n">
-        <v>11.5</v>
+        <v>4.315789473684211</v>
       </c>
       <c r="I50" t="n">
-        <v>18.69444444444444</v>
+        <v>8.789473684210526</v>
       </c>
       <c r="J50" t="n">
-        <v>17.32432432432432</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_per_match</t>
+          <t>count_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>19.25636527215475</v>
+        <v>29.99635627530364</v>
       </c>
       <c r="C51" t="n">
-        <v>16.10253411306043</v>
+        <v>24.24060376165639</v>
       </c>
       <c r="D51" t="n">
-        <v>1.031473678098125</v>
+        <v>23.74</v>
       </c>
       <c r="E51" t="n">
-        <v>2.808778556707441</v>
+        <v>2.700467225181028</v>
       </c>
       <c r="F51" t="n">
-        <v>3.270603509692636</v>
+        <v>3.840801389437518</v>
       </c>
       <c r="G51" t="n">
-        <v>16.84210526315789</v>
+        <v>26.81578947368421</v>
       </c>
       <c r="H51" t="n">
-        <v>12.33333333333333</v>
+        <v>15.97368421052632</v>
       </c>
       <c r="I51" t="n">
-        <v>23.94444444444444</v>
+        <v>33.36842105263158</v>
       </c>
       <c r="J51" t="n">
-        <v>22.2972972972973</v>
+        <v>29.54054054054054</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>count_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1632478632478632</v>
+        <v>1.630994152046783</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1020652231178547</v>
+        <v>1.320365101944049</v>
       </c>
       <c r="D52" t="n">
-        <v>1.028991510855053</v>
+        <v>23.53</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08235534886523686</v>
+        <v>0.11291245273588</v>
       </c>
       <c r="F52" t="n">
-        <v>0.04975098122049314</v>
+        <v>0.3066220147893173</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05263157894736842</v>
+        <v>1.473684210526316</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2631578947368421</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2162162162162162</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.07833423301844354</v>
+        <v>28.7838056680162</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06111527316790474</v>
+        <v>23.31963542489858</v>
       </c>
       <c r="D53" t="n">
-        <v>1.019587202272191</v>
+        <v>23.43</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01598383721406146</v>
+        <v>2.535479517213568</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0163184926058692</v>
+        <v>3.637214346502427</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06710526315789474</v>
+        <v>25.60526315789474</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04444444444444445</v>
+        <v>15.39473684210526</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1061111111111111</v>
+        <v>31.68421052631579</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1044736842105263</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_targeted_threat_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3825380116959065</v>
+        <v>7.661853351327035</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3281435382751172</v>
+        <v>6.209928349402035</v>
       </c>
       <c r="D54" t="n">
-        <v>1.003838777365748</v>
+        <v>23.38</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03283118877942782</v>
+        <v>0.5430658828448487</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06031772185875034</v>
+        <v>1.101510832270503</v>
       </c>
       <c r="G54" t="n">
-        <v>0.33</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2361111111111111</v>
+        <v>4.210526315789473</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4194736842105263</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4354054054054054</v>
+        <v>7.864864864864865</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_per_match</t>
+          <t>count_dangerous_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.109671614934773</v>
+        <v>1.425686009896536</v>
       </c>
       <c r="C55" t="n">
-        <v>1.739763447658184</v>
+        <v>1.159630683314894</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9802841935527974</v>
+        <v>22.94</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1934662039142407</v>
+        <v>0.2451935749828379</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4090452409192762</v>
+        <v>0.2868476804153452</v>
       </c>
       <c r="G55" t="n">
-        <v>1.947368421052632</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="H55" t="n">
-        <v>1.078947368421053</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="I55" t="n">
-        <v>2.444444444444445</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="J55" t="n">
-        <v>2.526315789473684</v>
+        <v>1.526315789473684</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_threat_per_match</t>
+          <t>count_coming_short_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1271538461538462</v>
+        <v>10.82645074224022</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1016977503819609</v>
+        <v>8.820831357673462</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9714875155756881</v>
+        <v>22.74</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0206369347418396</v>
+        <v>1.775049556826218</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02675260552782421</v>
+        <v>1.897100025418392</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0941025641025641</v>
+        <v>7.763157894736842</v>
       </c>
       <c r="H56" t="n">
-        <v>0.06526315789473684</v>
+        <v>6.210526315789473</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1447368421052632</v>
+        <v>12.31578947368421</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1697368421052632</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_per_match</t>
+          <t>count_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.24646873594242</v>
+        <v>7.635290148448043</v>
       </c>
       <c r="C57" t="n">
-        <v>1.74034034034034</v>
+        <v>6.254433380749171</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9660760090288364</v>
+        <v>22.08</v>
       </c>
       <c r="E57" t="n">
-        <v>0.392985697609222</v>
+        <v>0.2959833688697603</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5435610234301476</v>
+        <v>1.104254476855095</v>
       </c>
       <c r="G57" t="n">
-        <v>1.888888888888889</v>
+        <v>7.461538461538462</v>
       </c>
       <c r="H57" t="n">
-        <v>1.052631578947368</v>
+        <v>4.552631578947368</v>
       </c>
       <c r="I57" t="n">
-        <v>2.710526315789474</v>
+        <v>8.157894736842104</v>
       </c>
       <c r="J57" t="n">
-        <v>2.973684210526316</v>
+        <v>8.162162162162161</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_received_per_match</t>
+          <t>count_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.425686009896536</v>
+        <v>2.109671614934773</v>
       </c>
       <c r="C58" t="n">
-        <v>1.159630683314894</v>
+        <v>1.739763447658184</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9541685964428459</v>
+        <v>21.26</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2451935749828379</v>
+        <v>0.1934662039142407</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2868476804153452</v>
+        <v>0.4090452409192762</v>
       </c>
       <c r="G58" t="n">
-        <v>1.210526315789474</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7222222222222222</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="I58" t="n">
-        <v>1.789473684210526</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="J58" t="n">
-        <v>1.526315789473684</v>
+        <v>2.526315789473684</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_targeted_per_match</t>
+          <t>count_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9161943319838057</v>
+        <v>10.42759784075574</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6923739529002686</v>
+        <v>8.637764079869346</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9286839672484688</v>
+        <v>20.72</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1637275195277925</v>
+        <v>0.7960902760476362</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2527007969660569</v>
+        <v>1.869890627134671</v>
       </c>
       <c r="G59" t="n">
-        <v>0.631578947368421</v>
+        <v>9.394736842105264</v>
       </c>
       <c r="H59" t="n">
-        <v>0.3947368421052632</v>
+        <v>6.052631578947368</v>
       </c>
       <c r="I59" t="n">
-        <v>1.026315789473684</v>
+        <v>11.25641025641026</v>
       </c>
       <c r="J59" t="n">
-        <v>1.236842105263158</v>
+        <v>12.43243243243243</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_goal_per_match</t>
+          <t>support_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1480206927575349</v>
+        <v>0.1451578947368421</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09564564564564562</v>
+        <v>0.1204307201938781</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9044312632922693</v>
+        <v>20.53</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0433239485724456</v>
+        <v>0.01299954423047444</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05935336931918882</v>
+        <v>0.01841932936345165</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.1233333333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.08638888888888889</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1557894736842105</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.1518421052631579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_goal_per_match</t>
+          <t>count_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2859424201529465</v>
+        <v>8.377800269905533</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2159633317528054</v>
+        <v>6.970902481428796</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8968982657902226</v>
+        <v>20.18</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07824576131868782</v>
+        <v>0.8342865545391275</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08013278772387744</v>
+        <v>0.9873516898494341</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1578947368421053</v>
+        <v>7.421052631578948</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1052631578947368</v>
+        <v>4.815789473684211</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3684210526315789</v>
+        <v>9.368421052631579</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3513513513513514</v>
+        <v>8.394736842105264</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_received_per_match</t>
+          <t>runs_in_behind_received_threat_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.250224921277553</v>
+        <v>0.1923178137651822</v>
       </c>
       <c r="C62" t="n">
-        <v>2.725335862177967</v>
+        <v>0.1602400821874506</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8896316752329821</v>
+        <v>20.02</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3954381689138726</v>
+        <v>0.0114865948209898</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6760009562418434</v>
+        <v>0.03249082974846224</v>
       </c>
       <c r="G62" t="n">
-        <v>2.763157894736842</v>
+        <v>0.1812820512820513</v>
       </c>
       <c r="H62" t="n">
-        <v>1.722222222222222</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>3.861111111111111</v>
+        <v>0.2108333333333333</v>
       </c>
       <c r="J62" t="n">
-        <v>3.945945945945946</v>
+        <v>0.2221621621621622</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_threat_per_match</t>
+          <t>count_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1684392712550608</v>
+        <v>7.086144849302744</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1423830145935409</v>
+        <v>5.906440651177493</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8820839867175647</v>
+        <v>19.97</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02779600046811902</v>
+        <v>2.893810523298234</v>
       </c>
       <c r="F63" t="n">
-        <v>0.03019361631700007</v>
+        <v>1.081433102429271</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1482051282051282</v>
+        <v>4.684210526315789</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1094736842105263</v>
+        <v>4.394736842105263</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2158333333333333</v>
+        <v>11.74358974358974</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2110526315789474</v>
+        <v>7.605263157894737</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01565452091767881</v>
+        <v>1.146149572649573</v>
       </c>
       <c r="C64" t="n">
-        <v>0.005310573731626364</v>
+        <v>0.9568428165007112</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8728715609439697</v>
+        <v>19.78</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01429321186227971</v>
+        <v>0.1273324941485441</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01099502757997121</v>
+        <v>0.1680284872285414</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1.042631578947368</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>0.7730555555555556</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02631578947368421</v>
+        <v>1.366388888888889</v>
       </c>
       <c r="J64" t="n">
-        <v>0.02702702702702703</v>
+        <v>1.298378378378378</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_targeted_per_match</t>
+          <t>count_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.933400809716599</v>
+        <v>19.25636527215475</v>
       </c>
       <c r="C65" t="n">
-        <v>7.102207470628523</v>
+        <v>16.10253411306043</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8543868932630682</v>
+        <v>19.59</v>
       </c>
       <c r="E65" t="n">
-        <v>1.041456378649324</v>
+        <v>2.808778556707441</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9418947399455248</v>
+        <v>3.270603509692636</v>
       </c>
       <c r="G65" t="n">
-        <v>6.5</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="H65" t="n">
-        <v>5.432432432432432</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="I65" t="n">
-        <v>9.078947368421053</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="J65" t="n">
-        <v>8.552631578947368</v>
+        <v>22.2972972972973</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_received_per_match</t>
+          <t>count_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.05935672514619883</v>
+        <v>6.147840755735492</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02665033454507139</v>
+        <v>5.147213002476161</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8464147390303179</v>
+        <v>19.44</v>
       </c>
       <c r="E66" t="n">
-        <v>0.05331348378953706</v>
+        <v>1.008863278330527</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0316286048963669</v>
+        <v>1.328447631141349</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>4.410256410256411</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>3.405405405405405</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1388888888888889</v>
+        <v>7</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1052631578947368</v>
+        <v>8.657894736842104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.07703891138101665</v>
+        <v>0.04709851551956815</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06688765080870344</v>
+        <v>0.05841894526105053</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8437932231864091</v>
+        <v>-19.38</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01731428213079586</v>
+        <v>0.0287721703585057</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01145330789954419</v>
+        <v>0.03003298916524098</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05657894736842105</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.05026315789473684</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1013888888888889</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J67" t="n">
-        <v>0.09270270270270271</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_threat_per_match</t>
+          <t>support_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.05545321637426901</v>
+        <v>0.1113268106162843</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04922377640798693</v>
+        <v>0.09331858173963438</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8340158839570775</v>
+        <v>19.3</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004306045752930746</v>
+        <v>0.01326394753685005</v>
       </c>
       <c r="F68" t="n">
-        <v>0.008170314219389768</v>
+        <v>0.01618943678558971</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05</v>
+        <v>0.09179487179487179</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03405405405405405</v>
+        <v>0.07027777777777777</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05894736842105264</v>
+        <v>0.125</v>
       </c>
       <c r="J68" t="n">
-        <v>0.06026315789473684</v>
+        <v>0.1163157894736842</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_received_per_match</t>
+          <t>dropping_off_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.762325686009897</v>
+        <v>0.003659694107062528</v>
       </c>
       <c r="C69" t="n">
-        <v>6.01897687160845</v>
+        <v>0.003067936357410042</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8231865019613065</v>
+        <v>19.29</v>
       </c>
       <c r="E69" t="n">
-        <v>1.057948555375176</v>
+        <v>0.000873217718864229</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8575968775652254</v>
+        <v>0.001276057647567353</v>
       </c>
       <c r="G69" t="n">
-        <v>5.236842105263158</v>
+        <v>0.002368421052631579</v>
       </c>
       <c r="H69" t="n">
-        <v>4.756756756756757</v>
+        <v>0.00131578947368421</v>
       </c>
       <c r="I69" t="n">
-        <v>8.026315789473685</v>
+        <v>0.004722222222222221</v>
       </c>
       <c r="J69" t="n">
-        <v>7.368421052631579</v>
+        <v>0.006052631578947369</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_dangerous_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.217791273054431</v>
+        <v>3.250224921277553</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1493282756440651</v>
+        <v>2.725335862177967</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8186185358950948</v>
+        <v>19.26</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08552709583834189</v>
+        <v>0.3954381689138726</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08287491549058482</v>
+        <v>0.6760009562418434</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07894736842105263</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02702702702702703</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3055555555555556</v>
+        <v>3.861111111111111</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3157894736842105</v>
+        <v>3.945945945945946</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
+          <t>count_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.251089518668466</v>
+        <v>0.244331983805668</v>
       </c>
       <c r="C71" t="n">
-        <v>0.230121726990148</v>
+        <v>0.205732047837311</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8047358441459459</v>
+        <v>18.76</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0390381025135188</v>
+        <v>0.1050771090176899</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02499541264927572</v>
+        <v>0.09538806045009125</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2144736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1715789473684211</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2560526315789474</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_half_space_runs_received_per_match</t>
+          <t>count_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1593117408906883</v>
+        <v>7.287449392712551</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1119145461250724</v>
+        <v>6.136689320899847</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8027798544923241</v>
+        <v>18.75</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08311805967510395</v>
+        <v>2.966597674692693</v>
       </c>
       <c r="F72" t="n">
-        <v>0.05025554073913233</v>
+        <v>1.093925694509247</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05263157894736842</v>
+        <v>4.789473684210527</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>4.631578947368421</v>
       </c>
       <c r="I72" t="n">
-        <v>0.25</v>
+        <v>12.05128205128205</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2162162162162162</v>
+        <v>7.918918918918919</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_in_sample</t>
+          <t>count_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6.147840755735492</v>
+        <v>14.90389113810166</v>
       </c>
       <c r="C73" t="n">
-        <v>5.147213002476161</v>
+        <v>12.57647120805015</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7976051326337795</v>
+        <v>18.51</v>
       </c>
       <c r="E73" t="n">
-        <v>1.008863278330527</v>
+        <v>1.553840771894302</v>
       </c>
       <c r="F73" t="n">
-        <v>1.328447631141349</v>
+        <v>1.937924519402711</v>
       </c>
       <c r="G73" t="n">
-        <v>4.410256410256411</v>
+        <v>13.2051282051282</v>
       </c>
       <c r="H73" t="n">
-        <v>3.405405405405405</v>
+        <v>9.368421052631579</v>
       </c>
       <c r="I73" t="n">
-        <v>7</v>
+        <v>16.86842105263158</v>
       </c>
       <c r="J73" t="n">
-        <v>8.657894736842104</v>
+        <v>15.64864864864865</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_per_match</t>
+          <t>count_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6.147840755735492</v>
+        <v>36.63954116059379</v>
       </c>
       <c r="C74" t="n">
-        <v>5.147213002476161</v>
+        <v>30.93229018492176</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7976051326337795</v>
+        <v>18.45</v>
       </c>
       <c r="E74" t="n">
-        <v>1.008863278330527</v>
+        <v>2.21492938869965</v>
       </c>
       <c r="F74" t="n">
-        <v>1.328447631141349</v>
+        <v>4.852304362910053</v>
       </c>
       <c r="G74" t="n">
-        <v>4.410256410256411</v>
+        <v>33.55263157894737</v>
       </c>
       <c r="H74" t="n">
-        <v>3.405405405405405</v>
+        <v>24.15789473684211</v>
       </c>
       <c r="I74" t="n">
-        <v>7</v>
+        <v>39.33333333333334</v>
       </c>
       <c r="J74" t="n">
-        <v>8.657894736842104</v>
+        <v>40.94594594594594</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>21.31900584795321</v>
+        <v>0.1684392712550608</v>
       </c>
       <c r="C75" t="n">
-        <v>19.87980348769822</v>
+        <v>0.1423830145935409</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7808911298910787</v>
+        <v>18.3</v>
       </c>
       <c r="E75" t="n">
-        <v>2.530901999165511</v>
+        <v>0.02779600046811901</v>
       </c>
       <c r="F75" t="n">
-        <v>1.958037027437686</v>
+        <v>0.03019361631700007</v>
       </c>
       <c r="G75" t="n">
-        <v>17.89473684210526</v>
+        <v>0.1482051282051282</v>
       </c>
       <c r="H75" t="n">
-        <v>15.97368421052632</v>
+        <v>0.1094736842105263</v>
       </c>
       <c r="I75" t="n">
-        <v>23.84210526315789</v>
+        <v>0.2158333333333333</v>
       </c>
       <c r="J75" t="n">
-        <v>23.89189189189189</v>
+        <v>0.2110526315789474</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
+          <t>count_overlap_runs_received_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6.417791273054431</v>
+        <v>4.433153396311291</v>
       </c>
       <c r="C76" t="n">
-        <v>5.602678994784259</v>
+        <v>3.766066066066066</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7755612401282622</v>
+        <v>17.71</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4362695925391447</v>
+        <v>1.156829348441194</v>
       </c>
       <c r="F76" t="n">
-        <v>1.264724850153716</v>
+        <v>1.045126211189885</v>
       </c>
       <c r="G76" t="n">
-        <v>5.897435897435898</v>
+        <v>3.58974358974359</v>
       </c>
       <c r="H76" t="n">
-        <v>3.638888888888889</v>
+        <v>2.243243243243243</v>
       </c>
       <c r="I76" t="n">
-        <v>6.921052631578948</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="J76" t="n">
-        <v>7.918918918918919</v>
+        <v>6.526315789473684</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1644174538911381</v>
+        <v>0.5521093117408907</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1251646383225331</v>
+        <v>0.4731044202096834</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7529105447483623</v>
+        <v>16.7</v>
       </c>
       <c r="E77" t="n">
-        <v>0.04903799698007349</v>
+        <v>0.02820911903786186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05715858707306177</v>
+        <v>0.05103959987708788</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="H77" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.3705263157894737</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5905263157894737</v>
       </c>
       <c r="J77" t="n">
-        <v>0.25</v>
+        <v>0.5536842105263158</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>runs_in_behind_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3176563202878993</v>
+        <v>0.3825380116959065</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2515752594699963</v>
+        <v>0.3281435382751172</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7522025967780934</v>
+        <v>16.58</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07696801516896117</v>
+        <v>0.03283118877942782</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09641071513793061</v>
+        <v>0.06031772185875034</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.33</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4194736842105263</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.4354054054054054</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_received_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7.086144849302744</v>
+        <v>0.2443994601889339</v>
       </c>
       <c r="C79" t="n">
-        <v>5.906440651177493</v>
+        <v>0.2100890364048259</v>
       </c>
       <c r="D79" t="n">
-        <v>0.741158988798813</v>
+        <v>16.33</v>
       </c>
       <c r="E79" t="n">
-        <v>2.893810523298234</v>
+        <v>0.06847839018709591</v>
       </c>
       <c r="F79" t="n">
-        <v>1.081433102429271</v>
+        <v>0.08723438463292786</v>
       </c>
       <c r="G79" t="n">
-        <v>4.684210526315789</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H79" t="n">
-        <v>4.394736842105263</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I79" t="n">
-        <v>11.74358974358974</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J79" t="n">
-        <v>7.605263157894737</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_targeted_per_match</t>
+          <t>count_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7.287449392712551</v>
+        <v>0.02690058479532164</v>
       </c>
       <c r="C80" t="n">
-        <v>6.136689320899847</v>
+        <v>0.02323902850218639</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7144662448633743</v>
+        <v>15.76</v>
       </c>
       <c r="E80" t="n">
-        <v>2.966597674692693</v>
+        <v>0.02706850716031138</v>
       </c>
       <c r="F80" t="n">
-        <v>1.093925694509247</v>
+        <v>0.02238885482422644</v>
       </c>
       <c r="G80" t="n">
-        <v>4.789473684210527</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>4.631578947368421</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>12.05128205128205</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J80" t="n">
-        <v>7.918918918918919</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_in_sample</t>
+          <t>pulling_wide_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>40.74057579847054</v>
+        <v>0.01723796671165092</v>
       </c>
       <c r="C81" t="n">
-        <v>38.87156893735841</v>
+        <v>0.01489916232021495</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6989880475237217</v>
+        <v>15.7</v>
       </c>
       <c r="E81" t="n">
-        <v>2.771449272835087</v>
+        <v>0.002770824288671727</v>
       </c>
       <c r="F81" t="n">
-        <v>3.237249501605793</v>
+        <v>0.003971384744456091</v>
       </c>
       <c r="G81" t="n">
-        <v>36.63157894736842</v>
+        <v>0.01256410256410256</v>
       </c>
       <c r="H81" t="n">
-        <v>32.6578947368421</v>
+        <v>0.00891891891891892</v>
       </c>
       <c r="I81" t="n">
-        <v>43.86842105263158</v>
+        <v>0.01921052631578947</v>
       </c>
       <c r="J81" t="n">
-        <v>43.1578947368421</v>
+        <v>0.02131578947368421</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_per_match</t>
+          <t>count_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>40.74057579847054</v>
+        <v>1.327327935222672</v>
       </c>
       <c r="C82" t="n">
-        <v>38.87156893735841</v>
+        <v>1.151825509720247</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6989880475237217</v>
+        <v>15.24</v>
       </c>
       <c r="E82" t="n">
-        <v>2.771449272835087</v>
+        <v>0.1591960802236145</v>
       </c>
       <c r="F82" t="n">
-        <v>3.237249501605793</v>
+        <v>0.2970660301585621</v>
       </c>
       <c r="G82" t="n">
-        <v>36.63157894736842</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="H82" t="n">
-        <v>32.6578947368421</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="I82" t="n">
-        <v>43.86842105263158</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="J82" t="n">
-        <v>43.1578947368421</v>
+        <v>1.657894736842105</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_shot_per_match</t>
+          <t>coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.327327935222672</v>
+        <v>0.07703891138101665</v>
       </c>
       <c r="C83" t="n">
-        <v>1.151825509720246</v>
+        <v>0.06688765080870344</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6762747510800755</v>
+        <v>15.18</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1591960802236145</v>
+        <v>0.01731428213079586</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2970660301585621</v>
+        <v>0.01145330789954419</v>
       </c>
       <c r="G83" t="n">
-        <v>1.210526315789474</v>
+        <v>0.05657894736842105</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.05026315789473684</v>
       </c>
       <c r="I83" t="n">
-        <v>1.605263157894737</v>
+        <v>0.1013888888888889</v>
       </c>
       <c r="J83" t="n">
-        <v>1.657894736842105</v>
+        <v>0.09270270270270271</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_leading_to_goal_per_match</t>
+          <t>count_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.05951417004048583</v>
+        <v>5.396423751686909</v>
       </c>
       <c r="C84" t="n">
-        <v>0.03044886992255413</v>
+        <v>4.706912175333229</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6692861921473692</v>
+        <v>14.65</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07383408800417748</v>
+        <v>1.179629274724207</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03046908524921185</v>
+        <v>1.259360700074032</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>4.512820512820513</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>3.027027027027027</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1666666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="J84" t="n">
-        <v>0.08333333333333333</v>
+        <v>8.078947368421053</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.03758434547908231</v>
+        <v>6.417791273054431</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02138717665033454</v>
+        <v>5.602678994784259</v>
       </c>
       <c r="D85" t="n">
-        <v>0.651750535912282</v>
+        <v>14.55</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03162908231766076</v>
+        <v>0.4362695925391447</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02312336999086896</v>
+        <v>1.264724850153716</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>5.897435897435898</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I85" t="n">
-        <v>0.08333333333333333</v>
+        <v>6.921052631578948</v>
       </c>
       <c r="J85" t="n">
-        <v>0.08108108108108109</v>
+        <v>7.918918918918919</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_targeted_threat_per_match</t>
+          <t>runs_ahead_of_the_ball_received_threat_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02241408007197481</v>
+        <v>0.1838090418353576</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01977527527527528</v>
+        <v>0.1611705126178811</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6473899986727972</v>
+        <v>14.05</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00290366308867144</v>
+        <v>0.02750802587765593</v>
       </c>
       <c r="F86" t="n">
-        <v>0.004510832303516957</v>
+        <v>0.02066447818240263</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01743589743589744</v>
+        <v>0.1547368421052631</v>
       </c>
       <c r="H86" t="n">
-        <v>0.01277777777777778</v>
+        <v>0.1152631578947368</v>
       </c>
       <c r="I86" t="n">
-        <v>0.025</v>
+        <v>0.2191666666666667</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02789473684210526</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_threat_per_match</t>
+          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.8395515069725595</v>
+        <v>0.0108187134502924</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7889471313418682</v>
+        <v>0.0125204151519941</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6444891338244915</v>
+        <v>-13.59</v>
       </c>
       <c r="E87" t="n">
-        <v>0.124123164651438</v>
+        <v>0.01482314836916558</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0787868857771535</v>
+        <v>0.01385933388737947</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6521052631578947</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9494444444444444</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="J87" t="n">
-        <v>0.8944736842105264</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_received_threat_per_match</t>
+          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01723796671165092</v>
+        <v>1.800427350427351</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01489916232021495</v>
+        <v>1.587587587587588</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6435316732670662</v>
+        <v>13.41</v>
       </c>
       <c r="E88" t="n">
-        <v>0.002770824288671727</v>
+        <v>0.426934620853648</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003971384744456091</v>
+        <v>0.3495420854702911</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01256410256410256</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="H88" t="n">
-        <v>0.00891891891891892</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="I88" t="n">
-        <v>0.01921052631578947</v>
+        <v>2.361111111111111</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02131578947368421</v>
+        <v>2.289473684210526</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_received_per_match</t>
+          <t>dropping_off_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.433153396311291</v>
+        <v>0.003011920827710302</v>
       </c>
       <c r="C89" t="n">
-        <v>3.766066066066066</v>
+        <v>0.002655761024182077</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6410284736953984</v>
+        <v>13.41</v>
       </c>
       <c r="E89" t="n">
-        <v>1.156829348441194</v>
+        <v>0.0007261084522815897</v>
       </c>
       <c r="F89" t="n">
-        <v>1.045126211189885</v>
+        <v>0.001032551093133081</v>
       </c>
       <c r="G89" t="n">
-        <v>3.58974358974359</v>
+        <v>0.001842105263157895</v>
       </c>
       <c r="H89" t="n">
-        <v>2.243243243243243</v>
+        <v>0.001052631578947368</v>
       </c>
       <c r="I89" t="n">
-        <v>6.444444444444445</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="J89" t="n">
-        <v>6.526315789473684</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>pulling_wide_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1.800427350427351</v>
+        <v>0.02241408007197481</v>
       </c>
       <c r="C90" t="n">
-        <v>1.587587587587588</v>
+        <v>0.01977527527527527</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6397502886986036</v>
+        <v>13.34</v>
       </c>
       <c r="E90" t="n">
-        <v>0.426934620853648</v>
+        <v>0.00290366308867144</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3495420854702911</v>
+        <v>0.004510832303516957</v>
       </c>
       <c r="G90" t="n">
-        <v>1.236842105263158</v>
+        <v>0.01743589743589744</v>
       </c>
       <c r="H90" t="n">
-        <v>1.026315789473684</v>
+        <v>0.01277777777777778</v>
       </c>
       <c r="I90" t="n">
-        <v>2.361111111111111</v>
+        <v>0.025</v>
       </c>
       <c r="J90" t="n">
-        <v>2.289473684210526</v>
+        <v>0.02789473684210526</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_in_sample</t>
+          <t>count_support_runs_received_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>28.03803418803419</v>
+        <v>11.43670715249663</v>
       </c>
       <c r="C91" t="n">
-        <v>25.13203203203204</v>
+        <v>10.14497128707655</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6346575864931554</v>
+        <v>12.73</v>
       </c>
       <c r="E91" t="n">
-        <v>4.989196052389339</v>
+        <v>1.085792652299693</v>
       </c>
       <c r="F91" t="n">
-        <v>5.248561756380584</v>
+        <v>1.143383184889132</v>
       </c>
       <c r="G91" t="n">
-        <v>19.63157894736842</v>
+        <v>10.13157894736842</v>
       </c>
       <c r="H91" t="n">
-        <v>18.31578947368421</v>
+        <v>7.657894736842105</v>
       </c>
       <c r="I91" t="n">
-        <v>31.78947368421053</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="J91" t="n">
-        <v>35.05263157894737</v>
+        <v>12.05263157894737</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_per_match</t>
+          <t>pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>28.03803418803419</v>
+        <v>0.05545321637426901</v>
       </c>
       <c r="C92" t="n">
-        <v>25.13203203203204</v>
+        <v>0.04922377640798693</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6346575864931554</v>
+        <v>12.66</v>
       </c>
       <c r="E92" t="n">
-        <v>4.989196052389339</v>
+        <v>0.004306045752930746</v>
       </c>
       <c r="F92" t="n">
-        <v>5.248561756380584</v>
+        <v>0.008170314219389768</v>
       </c>
       <c r="G92" t="n">
-        <v>19.63157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="H92" t="n">
-        <v>18.31578947368421</v>
+        <v>0.03405405405405405</v>
       </c>
       <c r="I92" t="n">
-        <v>31.78947368421053</v>
+        <v>0.05894736842105264</v>
       </c>
       <c r="J92" t="n">
-        <v>35.05263157894737</v>
+        <v>0.06026315789473684</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_per_match</t>
+          <t>count_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1766531713900135</v>
+        <v>13.4204228520018</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1300326642431905</v>
+        <v>11.93716084505558</v>
       </c>
       <c r="D93" t="n">
-        <v>0.628332842448492</v>
+        <v>12.43</v>
       </c>
       <c r="E93" t="n">
-        <v>0.09426477307708005</v>
+        <v>1.110521576734418</v>
       </c>
       <c r="F93" t="n">
-        <v>0.07074495159983984</v>
+        <v>1.2718126957302</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1025641025641026</v>
+        <v>11.94736842105263</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>9.236842105263158</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3333333333333333</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2162162162162162</v>
+        <v>13.94736842105263</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_pulling_wide_runs_received_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12.2644849302744</v>
+        <v>6.762325686009897</v>
       </c>
       <c r="C94" t="n">
-        <v>11.45638533270112</v>
+        <v>6.018976871608451</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6209724743327051</v>
+        <v>12.35</v>
       </c>
       <c r="E94" t="n">
-        <v>2.128837037746356</v>
+        <v>1.057948555375176</v>
       </c>
       <c r="F94" t="n">
-        <v>1.249827765872149</v>
+        <v>0.8575968775652254</v>
       </c>
       <c r="G94" t="n">
-        <v>9.578947368421053</v>
+        <v>5.236842105263158</v>
       </c>
       <c r="H94" t="n">
-        <v>9.27027027027027</v>
+        <v>4.756756756756757</v>
       </c>
       <c r="I94" t="n">
-        <v>14.63888888888889</v>
+        <v>8.026315789473685</v>
       </c>
       <c r="J94" t="n">
-        <v>13.10526315789474</v>
+        <v>7.368421052631579</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
+          <t>count_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.213270355375619</v>
+        <v>16.4321412505623</v>
       </c>
       <c r="C95" t="n">
-        <v>2.033681049470523</v>
+        <v>14.66727516990675</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5914750031923438</v>
+        <v>12.03</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4041306939569712</v>
+        <v>2.092461759548031</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3421142992555132</v>
+        <v>1.692905493084479</v>
       </c>
       <c r="G95" t="n">
-        <v>1.736842105263158</v>
+        <v>13.78947368421053</v>
       </c>
       <c r="H95" t="n">
-        <v>1.368421052631579</v>
+        <v>11.5</v>
       </c>
       <c r="I95" t="n">
-        <v>2.722222222222222</v>
+        <v>18.69444444444444</v>
       </c>
       <c r="J95" t="n">
-        <v>2.378378378378379</v>
+        <v>17.32432432432432</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_targeted_per_match</t>
+          <t>count_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5.396423751686909</v>
+        <v>7.933400809716599</v>
       </c>
       <c r="C96" t="n">
-        <v>4.706912175333229</v>
+        <v>7.102207470628523</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5768129571840864</v>
+        <v>11.7</v>
       </c>
       <c r="E96" t="n">
-        <v>1.179629274724207</v>
+        <v>1.041456378649324</v>
       </c>
       <c r="F96" t="n">
-        <v>1.259360700074032</v>
+        <v>0.9418947399455248</v>
       </c>
       <c r="G96" t="n">
-        <v>4.512820512820513</v>
+        <v>6.5</v>
       </c>
       <c r="H96" t="n">
-        <v>3.027027027027027</v>
+        <v>5.432432432432432</v>
       </c>
       <c r="I96" t="n">
-        <v>7.416666666666667</v>
+        <v>9.078947368421053</v>
       </c>
       <c r="J96" t="n">
-        <v>8.078947368421053</v>
+        <v>8.552631578947368</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_in_sample</t>
+          <t>count_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>17.69777327935223</v>
+        <v>28.03803418803419</v>
       </c>
       <c r="C97" t="n">
-        <v>16.49259786101891</v>
+        <v>25.13203203203204</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5727538792592733</v>
+        <v>11.56</v>
       </c>
       <c r="E97" t="n">
-        <v>2.572489594924093</v>
+        <v>4.989196052389339</v>
       </c>
       <c r="F97" t="n">
-        <v>2.280650673132216</v>
+        <v>5.248561756380584</v>
       </c>
       <c r="G97" t="n">
-        <v>14.36842105263158</v>
+        <v>19.63157894736842</v>
       </c>
       <c r="H97" t="n">
-        <v>11.72972972972973</v>
+        <v>18.31578947368421</v>
       </c>
       <c r="I97" t="n">
-        <v>20.92307692307692</v>
+        <v>31.78947368421053</v>
       </c>
       <c r="J97" t="n">
-        <v>20.18421052631579</v>
+        <v>35.05263157894737</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_per_match</t>
+          <t>count_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>17.69777327935223</v>
+        <v>17.30535312640576</v>
       </c>
       <c r="C98" t="n">
-        <v>16.49259786101891</v>
+        <v>15.61416943259048</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5727538792592733</v>
+        <v>10.83</v>
       </c>
       <c r="E98" t="n">
-        <v>2.572489594924093</v>
+        <v>6.098090794359739</v>
       </c>
       <c r="F98" t="n">
-        <v>2.280650673132216</v>
+        <v>2.372605349925791</v>
       </c>
       <c r="G98" t="n">
-        <v>14.36842105263158</v>
+        <v>12.57894736842105</v>
       </c>
       <c r="H98" t="n">
-        <v>11.72972972972973</v>
+        <v>11.86486486486486</v>
       </c>
       <c r="I98" t="n">
-        <v>20.92307692307692</v>
+        <v>27.53846153846154</v>
       </c>
       <c r="J98" t="n">
-        <v>20.18421052631579</v>
+        <v>19.92105263157895</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_received_per_match</t>
+          <t>runs_ahead_of_the_ball_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.251089518668466</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02138717665033455</v>
+        <v>0.230121726990148</v>
       </c>
       <c r="D99" t="n">
-        <v>0.560112033611204</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.01441375151329385</v>
+        <v>0.0390381025135188</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02061356028695086</v>
+        <v>0.02499541264927572</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.2144736842105263</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1715789473684211</v>
       </c>
       <c r="I99" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.3</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.2560526315789474</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_coming_short_runs_targeted_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_received_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.06491228070175438</v>
+        <v>2.213270355375619</v>
       </c>
       <c r="C100" t="n">
-        <v>0.03912596807333649</v>
+        <v>2.033681049470523</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5471296896431791</v>
+        <v>8.83</v>
       </c>
       <c r="E100" t="n">
-        <v>0.06404109560857536</v>
+        <v>0.4041306939569712</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0412284252830686</v>
+        <v>0.3421142992555132</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1666666666666667</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="J100" t="n">
-        <v>0.131578947368421</v>
+        <v>2.378378378378379</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_targeted_threat_per_match</t>
+          <t>count_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.003659694107062528</v>
+        <v>11.4634278002699</v>
       </c>
       <c r="C101" t="n">
-        <v>0.003067936357410042</v>
+        <v>10.64165217849428</v>
       </c>
       <c r="D101" t="n">
-        <v>0.534635501816735</v>
+        <v>7.72</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0008732177188642292</v>
+        <v>1.89379062683588</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001276057647567353</v>
+        <v>2.38864077531794</v>
       </c>
       <c r="G101" t="n">
-        <v>0.002368421052631579</v>
+        <v>9.948717948717949</v>
       </c>
       <c r="H101" t="n">
-        <v>0.00131578947368421</v>
+        <v>8.026315789473685</v>
       </c>
       <c r="I101" t="n">
-        <v>0.004722222222222222</v>
+        <v>14.5</v>
       </c>
       <c r="J101" t="n">
-        <v>0.006052631578947369</v>
+        <v>16.05263157894737</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_per_match</t>
+          <t>count_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>17.30535312640576</v>
+        <v>17.69777327935223</v>
       </c>
       <c r="C102" t="n">
-        <v>15.61416943259048</v>
+        <v>16.49259786101891</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5308314409985099</v>
+        <v>7.31</v>
       </c>
       <c r="E102" t="n">
-        <v>6.098090794359739</v>
+        <v>2.572489594924093</v>
       </c>
       <c r="F102" t="n">
-        <v>2.372605349925791</v>
+        <v>2.280650673132216</v>
       </c>
       <c r="G102" t="n">
-        <v>12.57894736842105</v>
+        <v>14.36842105263158</v>
       </c>
       <c r="H102" t="n">
-        <v>11.86486486486486</v>
+        <v>11.72972972972973</v>
       </c>
       <c r="I102" t="n">
-        <v>27.53846153846154</v>
+        <v>20.92307692307692</v>
       </c>
       <c r="J102" t="n">
-        <v>19.92105263157895</v>
+        <v>20.18421052631579</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_in_sample</t>
+          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>17.30535312640576</v>
+        <v>21.31900584795321</v>
       </c>
       <c r="C103" t="n">
-        <v>15.61416943259048</v>
+        <v>19.87980348769822</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5308314409985099</v>
+        <v>7.24</v>
       </c>
       <c r="E103" t="n">
-        <v>6.098090794359739</v>
+        <v>2.530901999165511</v>
       </c>
       <c r="F103" t="n">
-        <v>2.372605349925791</v>
+        <v>1.958037027437686</v>
       </c>
       <c r="G103" t="n">
-        <v>12.57894736842105</v>
+        <v>17.89473684210526</v>
       </c>
       <c r="H103" t="n">
-        <v>11.86486486486486</v>
+        <v>15.97368421052632</v>
       </c>
       <c r="I103" t="n">
-        <v>27.53846153846154</v>
+        <v>23.84210526315789</v>
       </c>
       <c r="J103" t="n">
-        <v>19.92105263157895</v>
+        <v>23.89189189189189</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01025641025641026</v>
+        <v>12.2644849302744</v>
       </c>
       <c r="C104" t="n">
-        <v>0.003606237816764132</v>
+        <v>11.45638533270112</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5229763603684908</v>
+        <v>7.05</v>
       </c>
       <c r="E104" t="n">
-        <v>0.02293403053845938</v>
+        <v>2.128837037746356</v>
       </c>
       <c r="F104" t="n">
-        <v>0.009520847223814313</v>
+        <v>1.249827765872149</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>9.578947368421053</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>9.27027027027027</v>
       </c>
       <c r="I104" t="n">
-        <v>0.05128205128205128</v>
+        <v>14.63888888888889</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02777777777777778</v>
+        <v>13.10526315789474</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_per_match</t>
+          <t>runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>61.13789923526765</v>
+        <v>0.8395515069725595</v>
       </c>
       <c r="C105" t="n">
-        <v>58.63569358832517</v>
+        <v>0.7889471313418682</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4980079781073452</v>
+        <v>6.41</v>
       </c>
       <c r="E105" t="n">
-        <v>7.224311591018867</v>
+        <v>0.124123164651438</v>
       </c>
       <c r="F105" t="n">
-        <v>5.939708576745759</v>
+        <v>0.07878688577715351</v>
       </c>
       <c r="G105" t="n">
-        <v>49.18421052631579</v>
+        <v>0.6521052631578947</v>
       </c>
       <c r="H105" t="n">
-        <v>48.57894736842105</v>
+        <v>0.64</v>
       </c>
       <c r="I105" t="n">
-        <v>67.76315789473684</v>
+        <v>0.9494444444444444</v>
       </c>
       <c r="J105" t="n">
-        <v>68.29729729729729</v>
+        <v>0.8944736842105264</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_in_sample</t>
+          <t>dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>61.13789923526765</v>
+        <v>0.01147143499775079</v>
       </c>
       <c r="C106" t="n">
-        <v>58.63569358832517</v>
+        <v>0.01083177914756862</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4980079781073452</v>
+        <v>5.91</v>
       </c>
       <c r="E106" t="n">
-        <v>7.224311591018867</v>
+        <v>0.002640483069501355</v>
       </c>
       <c r="F106" t="n">
-        <v>5.939708576745759</v>
+        <v>0.002958973488409777</v>
       </c>
       <c r="G106" t="n">
-        <v>49.18421052631579</v>
+        <v>0.008421052631578947</v>
       </c>
       <c r="H106" t="n">
-        <v>48.57894736842105</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="I106" t="n">
-        <v>67.76315789473684</v>
+        <v>0.01487179487179487</v>
       </c>
       <c r="J106" t="n">
-        <v>68.29729729729729</v>
+        <v>0.01526315789473684</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.2443994601889339</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2100890364048259</v>
+        <v>0.02489594858015911</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4429703294567303</v>
+        <v>5.7</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06847839018709591</v>
+        <v>0.03721614637823934</v>
       </c>
       <c r="F107" t="n">
-        <v>0.08723438463292786</v>
+        <v>0.0211845518022079</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1578947368421053</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0.07894736842105263</v>
       </c>
-      <c r="I107" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="J107" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_support_runs_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.244331983805668</v>
+        <v>40.74057579847054</v>
       </c>
       <c r="C108" t="n">
-        <v>0.205732047837311</v>
+        <v>38.87156893735841</v>
       </c>
       <c r="D108" t="n">
-        <v>0.438139948534513</v>
+        <v>4.81</v>
       </c>
       <c r="E108" t="n">
-        <v>0.1050771090176899</v>
+        <v>2.771449272835087</v>
       </c>
       <c r="F108" t="n">
-        <v>0.09538806045009125</v>
+        <v>3.237249501605793</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07692307692307693</v>
+        <v>36.63157894736842</v>
       </c>
       <c r="H108" t="n">
-        <v>0.02631578947368421</v>
+        <v>32.6578947368421</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3684210526315789</v>
+        <v>43.86842105263158</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3513513513513514</v>
+        <v>43.1578947368421</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_received_per_match</t>
+          <t>count_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.005263157894736842</v>
+        <v>61.13789923526765</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0107186133501923</v>
+        <v>58.63569358832517</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4193139346887674</v>
+        <v>4.27</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01176877882894626</v>
+        <v>7.224311591018867</v>
       </c>
       <c r="F109" t="n">
-        <v>0.01359295395919965</v>
+        <v>5.939708576745759</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>49.18421052631579</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>48.57894736842105</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02631578947368421</v>
+        <v>67.76315789473684</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02777777777777778</v>
+        <v>68.29729729729729</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_received_threat_per_match</t>
+          <t>count_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.003011920827710302</v>
+        <v>0.5054430949167791</v>
       </c>
       <c r="C110" t="n">
-        <v>0.002655761024182077</v>
+        <v>0.5268795110900374</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4113946565323571</v>
+        <v>-4.07</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0007261084522815897</v>
+        <v>0.1826648412096884</v>
       </c>
       <c r="F110" t="n">
-        <v>0.001032551093133081</v>
+        <v>0.1738222095353461</v>
       </c>
       <c r="G110" t="n">
-        <v>0.001842105263157895</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H110" t="n">
-        <v>0.001052631578947368</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="I110" t="n">
-        <v>0.003846153846153846</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="J110" t="n">
-        <v>0.005</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_per_match</t>
+          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>11.4634278002699</v>
+        <v>3.110413855150697</v>
       </c>
       <c r="C111" t="n">
-        <v>10.64165217849428</v>
+        <v>3.020241293925504</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3949640301266999</v>
+        <v>2.99</v>
       </c>
       <c r="E111" t="n">
-        <v>1.89379062683588</v>
+        <v>0.6000433912226067</v>
       </c>
       <c r="F111" t="n">
-        <v>2.38864077531794</v>
+        <v>0.4524444539981153</v>
       </c>
       <c r="G111" t="n">
-        <v>9.948717948717949</v>
+        <v>2.578947368421053</v>
       </c>
       <c r="H111" t="n">
-        <v>8.026315789473685</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="I111" t="n">
-        <v>14.5</v>
+        <v>3.861111111111111</v>
       </c>
       <c r="J111" t="n">
-        <v>16.05263157894737</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>count_overlap_runs_in_sample</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>11.4634278002699</v>
-      </c>
-      <c r="C112" t="n">
-        <v>10.64165217849428</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.3949640301266999</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.89379062683588</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2.38864077531794</v>
-      </c>
-      <c r="G112" t="n">
-        <v>9.948717948717949</v>
-      </c>
-      <c r="H112" t="n">
-        <v>8.026315789473685</v>
-      </c>
-      <c r="I112" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>16.05263157894737</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_pulling_wide_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.04709851551956815</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.05841894526105053</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.3666793988112845</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.0287721703585057</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.03003298916524098</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_dropping_off_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.01608187134502924</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.02318897845213634</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.3563483225498992</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.01469280061567382</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.02225739647349381</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.05405405405405406</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>count_overlap_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.05337381916329285</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.04092250144881723</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.3361317894972893</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.05330014996741034</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.03310540249810451</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.131578947368421</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>dropping_off_runs_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.01147143499775079</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.01083177914756862</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.2714964204870521</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.002640483069501355</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.002958973488409777</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.008421052631578947</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.005263157894736842</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.01487179487179487</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.01526315789473684</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_runs_ahead_of_the_ball_targeted_per_match</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>3.110413855150697</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3.020241293925504</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.2443481924304134</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.6000433912226067</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.4524444539981153</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2.578947368421053</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2.184210526315789</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.861111111111111</v>
-      </c>
-      <c r="J117" t="n">
         <v>3.631578947368421</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>count_coming_short_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.02690058479532164</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.02323902850218639</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.1605144707810256</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.02706850716031138</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.02238885482422644</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.08108108108108109</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.0108187134502924</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.0125204151519941</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.1340050420345616</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.01482314836916558</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.01385933388737947</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>count_overlap_runs_leading_to_shot_per_match</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5054430949167791</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.5268795110900374</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.1167593540537711</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.1826648412096884</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.1738222095353461</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.02489594858015911</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.07241672621247575</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.03721614637823934</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.0211845518022079</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.05405405405405406</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_running.xlsx
+++ b/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_running.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01565452091767881</v>
+        <v>0.01417045326785669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005310573731626364</v>
+        <v>0.004813531327742332</v>
       </c>
       <c r="D2" t="n">
-        <v>194.78</v>
+        <v>194.39</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01429321186227971</v>
+        <v>0.01294668753742628</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01099502757997121</v>
+        <v>0.009965858544582583</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02411834065816272</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02444164421656383</v>
       </c>
     </row>
     <row r="3">
@@ -521,19 +521,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.009101617281544119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003606237816764132</v>
+        <v>0.003291963252580493</v>
       </c>
       <c r="D3" t="n">
-        <v>184.41</v>
+        <v>176.48</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02293403053845938</v>
+        <v>0.02035183494671949</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009520847223814313</v>
+        <v>0.008688855596346282</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.0455080864077206</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0251004016064257</v>
       </c>
     </row>
     <row r="4">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05935672514619883</v>
+        <v>0.05524349712436762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02665033454507139</v>
+        <v>0.02441658913301864</v>
       </c>
       <c r="D4" t="n">
-        <v>122.72</v>
+        <v>126.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05331348378953706</v>
+        <v>0.04905454873336382</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0316286048963669</v>
+        <v>0.02892351967637587</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1284078294833799</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09607756752759093</v>
       </c>
     </row>
     <row r="5">
@@ -589,19 +589,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05951417004048583</v>
+        <v>0.05440733115433372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03044886992255413</v>
+        <v>0.02726179371569422</v>
       </c>
       <c r="D5" t="n">
-        <v>95.45999999999999</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07383408800417748</v>
+        <v>0.06821268629335812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03046908524921185</v>
+        <v>0.02745068831118782</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1553557302765211</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07631386717334918</v>
       </c>
     </row>
     <row r="6">
@@ -623,19 +623,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03758434547908231</v>
+        <v>0.0348471708210419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02138717665033454</v>
+        <v>0.0193961707634775</v>
       </c>
       <c r="D6" t="n">
-        <v>75.73</v>
+        <v>79.66</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03162908231766076</v>
+        <v>0.03003125531856193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02312336999086896</v>
+        <v>0.02063854432032703</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -644,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07945107128161499</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07174344729430356</v>
       </c>
     </row>
     <row r="7">
@@ -657,19 +657,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06491228070175438</v>
+        <v>0.06077141310004479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03912596807333649</v>
+        <v>0.03591848495263986</v>
       </c>
       <c r="D7" t="n">
-        <v>65.91</v>
+        <v>69.19</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06404109560857536</v>
+        <v>0.05975160023670954</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0412284252830686</v>
+        <v>0.03781440085726862</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1560474093617657</v>
       </c>
       <c r="J7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1202821771610256</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1632478632478632</v>
+        <v>0.150306032728396</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1020652231178547</v>
+        <v>0.09356861447491503</v>
       </c>
       <c r="D8" t="n">
-        <v>59.94</v>
+        <v>60.64</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08235534886523686</v>
+        <v>0.07702033341844329</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04975098122049314</v>
+        <v>0.04570936626757089</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04739019237774058</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02434142911234922</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2451539117723106</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1989305715979924</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3305218173639226</v>
+        <v>0.3040542382950323</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2104288499025341</v>
+        <v>0.1919956554921885</v>
       </c>
       <c r="D9" t="n">
-        <v>57.07</v>
+        <v>58.37</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1216065129327414</v>
+        <v>0.1144435578242931</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08003609808859982</v>
+        <v>0.07202298364444835</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1915734195658678</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.09948596496925907</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4896261218034156</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4054752016139576</v>
       </c>
     </row>
     <row r="10">
@@ -759,31 +759,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1480206927575349</v>
+        <v>0.1355274897592527</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09564564564564562</v>
+        <v>0.08720650056863709</v>
       </c>
       <c r="D10" t="n">
-        <v>54.76</v>
+        <v>55.41</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0433239485724456</v>
+        <v>0.03964097645044602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05935336931918882</v>
+        <v>0.05401795757848486</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07180652601040877</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02454102154456281</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1691549484665788</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2170658700649315</v>
       </c>
     </row>
     <row r="11">
@@ -793,31 +793,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.768600989653621</v>
+        <v>1.623652169520424</v>
       </c>
       <c r="C11" t="n">
-        <v>1.145930140666983</v>
+        <v>1.048437185485851</v>
       </c>
       <c r="D11" t="n">
-        <v>54.34</v>
+        <v>54.86</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3950106064499603</v>
+        <v>0.3648358617009287</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3661236046865539</v>
+        <v>0.3355446396365135</v>
       </c>
       <c r="G11" t="n">
-        <v>1.076923076923077</v>
+        <v>0.9851045451427933</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.5900104093112131</v>
       </c>
       <c r="I11" t="n">
-        <v>2.055555555555555</v>
+        <v>1.895104796054546</v>
       </c>
       <c r="J11" t="n">
-        <v>2.184210526315789</v>
+        <v>1.997862604633995</v>
       </c>
     </row>
     <row r="12">
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03456545209176788</v>
+        <v>0.03176041871468598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02272646330541068</v>
+        <v>0.02078774459383161</v>
       </c>
       <c r="D12" t="n">
-        <v>52.09</v>
+        <v>52.78</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007923778434932569</v>
+        <v>0.007222647170479824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006971405180523621</v>
+        <v>0.006356009062907759</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02256410256410257</v>
+        <v>0.02081276453070925</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01459459459459459</v>
+        <v>0.01350856492667002</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0431578947368421</v>
+        <v>0.03937672398759746</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04236842105263158</v>
+        <v>0.03859917072990776</v>
       </c>
     </row>
     <row r="13">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005263157894736842</v>
+        <v>0.004676976802195061</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0107186133501923</v>
+        <v>0.009843305658093427</v>
       </c>
       <c r="D13" t="n">
-        <v>-50.9</v>
+        <v>-52.49</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01176877882894626</v>
+        <v>0.01045803805889775</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01359295395919965</v>
+        <v>0.0124849547851466</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02338488401097531</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="14">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.009733215359193156</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02138717665033455</v>
+        <v>0.01965016500516978</v>
       </c>
       <c r="D14" t="n">
-        <v>-50.78</v>
+        <v>-50.47</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01441375151329385</v>
+        <v>0.01333059976325778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02061356028695086</v>
+        <v>0.01873375734623479</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02472255796066367</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0487455279654139</v>
       </c>
     </row>
     <row r="15">
@@ -929,31 +929,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02458996851102114</v>
+        <v>0.02261005616610954</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01640553711606343</v>
+        <v>0.0150308820787043</v>
       </c>
       <c r="D15" t="n">
-        <v>49.89</v>
+        <v>50.42</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006852887628051891</v>
+        <v>0.006342357187962659</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004835664421940442</v>
+        <v>0.004379056433874562</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01846153846153846</v>
+        <v>0.01686100820630255</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008947368421052633</v>
+        <v>0.008286278662827074</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03527777777777778</v>
+        <v>0.03254926241906864</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0272972972972973</v>
+        <v>0.02483681546869732</v>
       </c>
     </row>
     <row r="16">
@@ -963,31 +963,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2284750337381916</v>
+        <v>0.2098275509249417</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1546888994257416</v>
+        <v>0.1417395655384401</v>
       </c>
       <c r="D16" t="n">
-        <v>47.7</v>
+        <v>48.04</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07614762917640998</v>
+        <v>0.07008989826200317</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05367538172510163</v>
+        <v>0.0486548928807701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.131578947368421</v>
+        <v>0.120571471405609</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07483884685843374</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3055408870567975</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2179592669751112</v>
       </c>
     </row>
     <row r="17">
@@ -997,31 +997,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.74212775528565</v>
+        <v>0.682032673877732</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5033875981244402</v>
+        <v>0.4620334863862079</v>
       </c>
       <c r="D17" t="n">
-        <v>47.43</v>
+        <v>47.62</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1554710472771162</v>
+        <v>0.1433306521857312</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1791074881564765</v>
+        <v>0.1650400330535379</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4783598528366931</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2912497209344617</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.8448578639276428</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8717425108875517</v>
       </c>
     </row>
     <row r="18">
@@ -1031,31 +1031,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.217791273054431</v>
+        <v>0.1988842782999681</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1493282756440651</v>
+        <v>0.1358234736615443</v>
       </c>
       <c r="D18" t="n">
-        <v>45.85</v>
+        <v>46.43</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08552709583834189</v>
+        <v>0.07823647840535827</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08287491549058482</v>
+        <v>0.07510339164755456</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.07284029168505017</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02459934500144043</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2816641804660757</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2839131460583431</v>
       </c>
     </row>
     <row r="19">
@@ -1065,31 +1065,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5557579847053532</v>
+        <v>0.5105855000009616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3851456719877772</v>
+        <v>0.3517065116365814</v>
       </c>
       <c r="D19" t="n">
-        <v>44.3</v>
+        <v>45.17</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07183252848227642</v>
+        <v>0.06275219301077965</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1540968009427381</v>
+        <v>0.1383776207314986</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4264596232889143</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.169972116049563</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.5995418592149048</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.7328711894526211</v>
       </c>
     </row>
     <row r="20">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02544062078272605</v>
+        <v>0.02340623518804408</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01768955797903166</v>
+        <v>0.01620506835797198</v>
       </c>
       <c r="D20" t="n">
-        <v>43.82</v>
+        <v>44.44</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004440853216942065</v>
+        <v>0.004211005805427164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004161117525816784</v>
+        <v>0.003820350226475691</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02026315789473684</v>
+        <v>0.01850149260658171</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01081081081081081</v>
+        <v>0.009939005452260232</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03128205128205128</v>
+        <v>0.02885333659316784</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02351351351351351</v>
+        <v>0.02183942588669332</v>
       </c>
     </row>
     <row r="21">
@@ -1133,31 +1133,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1593117408906883</v>
+        <v>0.1464955294004714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1119145461250724</v>
+        <v>0.1024671751674246</v>
       </c>
       <c r="D21" t="n">
-        <v>42.35</v>
+        <v>42.97</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08311805967510395</v>
+        <v>0.07656351545085836</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05025554073913233</v>
+        <v>0.04580982879776054</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04873603438100849</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.25</v>
+        <v>0.2285236402588672</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1990371473394988</v>
       </c>
     </row>
     <row r="22">
@@ -1167,31 +1167,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8621682411156095</v>
+        <v>0.7921170667522969</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6127337864179968</v>
+        <v>0.5599241692108434</v>
       </c>
       <c r="D22" t="n">
-        <v>40.71</v>
+        <v>41.47</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1335922006069725</v>
+        <v>0.1188695985562415</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2188936128770642</v>
+        <v>0.1992189966596077</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.6837950022997477</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.316928601013659</v>
       </c>
       <c r="I22" t="n">
-        <v>1.078947368421053</v>
+        <v>0.9826449893115058</v>
       </c>
       <c r="J22" t="n">
-        <v>1.131578947368421</v>
+        <v>1.02582428562937</v>
       </c>
     </row>
     <row r="23">
@@ -1201,31 +1201,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0188740440845704</v>
+        <v>0.01739157218231831</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01348614403877562</v>
+        <v>0.01235640203842896</v>
       </c>
       <c r="D23" t="n">
-        <v>39.95</v>
+        <v>40.75</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005086056378966981</v>
+        <v>0.00474537980158133</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002699178483716684</v>
+        <v>0.002459070032805852</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01289473684210526</v>
+        <v>0.01184844085946514</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008648648648648649</v>
+        <v>0.007940921287181596</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02615384615384616</v>
+        <v>0.02414205500724903</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01789473684210527</v>
+        <v>0.01624578869992166</v>
       </c>
     </row>
     <row r="24">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.04980971659919028</v>
+        <v>0.04575711457712998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03610283968178705</v>
+        <v>0.0330510676894749</v>
       </c>
       <c r="D24" t="n">
-        <v>37.97</v>
+        <v>38.44</v>
       </c>
       <c r="E24" t="n">
-        <v>0.009111083948167247</v>
+        <v>0.008300111238262232</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01033705561395674</v>
+        <v>0.009447363242405218</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03615384615384615</v>
+        <v>0.033184743022831</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02405405405405405</v>
+        <v>0.02185715929520666</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06052631578947368</v>
+        <v>0.05513077462152197</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06078947368421053</v>
+        <v>0.05551604900370444</v>
       </c>
     </row>
     <row r="25">
@@ -1269,31 +1269,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02728879892037787</v>
+        <v>0.0250816066086798</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01981262841789157</v>
+        <v>0.01815964692794202</v>
       </c>
       <c r="D25" t="n">
-        <v>37.73</v>
+        <v>38.12</v>
       </c>
       <c r="E25" t="n">
-        <v>0.007073790020057115</v>
+        <v>0.006571133622964371</v>
       </c>
       <c r="F25" t="n">
-        <v>0.005016333351198271</v>
+        <v>0.004542671282899566</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.01933660888515206</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01210526315789474</v>
+        <v>0.01115212836664209</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03833333333333334</v>
+        <v>0.0354151513549677</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03135135135135135</v>
+        <v>0.02855047232356836</v>
       </c>
     </row>
     <row r="26">
@@ -1303,31 +1303,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.473369320737742</v>
+        <v>2.270979906679139</v>
       </c>
       <c r="C26" t="n">
-        <v>1.802715873768505</v>
+        <v>1.650260829995022</v>
       </c>
       <c r="D26" t="n">
-        <v>37.2</v>
+        <v>37.61</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4892000971935042</v>
+        <v>0.4526696700930778</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5059658209640391</v>
+        <v>0.4632552274731042</v>
       </c>
       <c r="G26" t="n">
-        <v>1.615384615384615</v>
+        <v>1.476016313168094</v>
       </c>
       <c r="H26" t="n">
-        <v>1.135135135135135</v>
+        <v>1.036684156984014</v>
       </c>
       <c r="I26" t="n">
-        <v>2.789473684210526</v>
+        <v>2.563319763376393</v>
       </c>
       <c r="J26" t="n">
-        <v>3.078947368421053</v>
+        <v>2.818418554121007</v>
       </c>
     </row>
     <row r="27">
@@ -1337,31 +1337,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2354163292847503</v>
+        <v>0.2164572552737981</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1727332859174965</v>
+        <v>0.1582249335268179</v>
       </c>
       <c r="D27" t="n">
-        <v>36.29</v>
+        <v>36.8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03915354464514289</v>
+        <v>0.03647242412497025</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03776982017713217</v>
+        <v>0.0345606269268087</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1778947368421052</v>
+        <v>0.1620971405801975</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1102631578947369</v>
+        <v>0.1000738250855275</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2758974358974359</v>
+        <v>0.2537029681890717</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2383783783783784</v>
+        <v>0.2177680645327061</v>
       </c>
     </row>
     <row r="28">
@@ -1371,31 +1371,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1766531713900135</v>
+        <v>0.1629727380724443</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1300326642431906</v>
+        <v>0.1191500397662421</v>
       </c>
       <c r="D28" t="n">
-        <v>35.85</v>
+        <v>36.78</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09426477307708005</v>
+        <v>0.08729613573958075</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07074495159983984</v>
+        <v>0.06486021884180185</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.09396467094324129</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3092336875062711</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.1961905702215554</v>
       </c>
     </row>
     <row r="29">
@@ -1405,223 +1405,223 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06374988753936123</v>
+        <v>0.05854830170879816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04739286655076128</v>
+        <v>0.04346209041923456</v>
       </c>
       <c r="D29" t="n">
-        <v>34.51</v>
+        <v>34.71</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01707483604052479</v>
+        <v>0.01571623245557106</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01379959849047441</v>
+        <v>0.01264000326037599</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05157894736842105</v>
+        <v>0.04780915386617999</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02891891891891892</v>
+        <v>0.02683228003788569</v>
       </c>
       <c r="I29" t="n">
-        <v>0.09277777777777778</v>
+        <v>0.08540938211099032</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08473684210526317</v>
+        <v>0.07775405520876209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_received_per_match</t>
+          <t>count_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.428654970760234</v>
+        <v>0.26101318088745</v>
       </c>
       <c r="C30" t="n">
-        <v>1.832898688161846</v>
+        <v>0.1966114983804183</v>
       </c>
       <c r="D30" t="n">
-        <v>32.5</v>
+        <v>32.76</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3734777820773461</v>
+        <v>0.0709954457245599</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3516395076851253</v>
+        <v>0.07259607975447516</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0.1432875101958239</v>
       </c>
       <c r="H30" t="n">
-        <v>1.297297297297297</v>
+        <v>0.09646474219988473</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0.333572130521296</v>
       </c>
       <c r="J30" t="n">
-        <v>2.648648648648649</v>
+        <v>0.3183935982592536</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_targeted_threat_per_match</t>
+          <t>count_pulling_half_space_runs_received_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6591538461538462</v>
+        <v>2.229254552543004</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4978062009377799</v>
+        <v>1.680485738257325</v>
       </c>
       <c r="D31" t="n">
-        <v>32.41</v>
+        <v>32.66</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09187510005194083</v>
+        <v>0.3435890430720931</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09689829416698946</v>
+        <v>0.3211942020198243</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5431578947368422</v>
+        <v>1.826987383258436</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3402631578947368</v>
+        <v>1.185653683840278</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7660526315789473</v>
+        <v>2.750793915668838</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7048648648648649</v>
+        <v>2.417069965349744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_goal_per_match</t>
+          <t>cross_receiver_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2859424201529465</v>
+        <v>0.605694203356489</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2159633317528054</v>
+        <v>0.4567424887647497</v>
       </c>
       <c r="D32" t="n">
-        <v>32.4</v>
+        <v>32.61</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07824576131868782</v>
+        <v>0.08450848799576069</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08013278772387744</v>
+        <v>0.08925220134975101</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.5009919700852911</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.3121050142356056</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.7027594311748175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.6507809139172626</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_overlap_runs_targeted_per_match</t>
+          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9161943319838057</v>
+        <v>0.1511508405643854</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6923739529002686</v>
+        <v>0.1141946518125437</v>
       </c>
       <c r="D33" t="n">
-        <v>32.33</v>
+        <v>32.36</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1637275195277925</v>
+        <v>0.0452185462047048</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2527007969660569</v>
+        <v>0.0519778595445343</v>
       </c>
       <c r="G33" t="n">
-        <v>0.631578947368421</v>
+        <v>0.09755262049673902</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.04742790941760039</v>
       </c>
       <c r="I33" t="n">
-        <v>1.026315789473684</v>
+        <v>0.2056551314638435</v>
       </c>
       <c r="J33" t="n">
-        <v>1.236842105263158</v>
+        <v>0.2271104069806912</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>count_dangerous_overlap_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1644174538911381</v>
+        <v>0.8420727533218682</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1251646383225331</v>
+        <v>0.6361854370562695</v>
       </c>
       <c r="D34" t="n">
-        <v>31.36</v>
+        <v>32.36</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04903799698007349</v>
+        <v>0.1535296549316139</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05715858707306177</v>
+        <v>0.23221061317933</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.5744951673923989</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.3642171431176414</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.9394193946577816</v>
       </c>
       <c r="J34" t="n">
-        <v>0.25</v>
+        <v>1.13680537175022</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_per_match</t>
+          <t>count_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01608187134502924</v>
+        <v>0.04904470232621534</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02318897845213634</v>
+        <v>0.03733501329654541</v>
       </c>
       <c r="D35" t="n">
-        <v>-30.65</v>
+        <v>31.36</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01469280061567382</v>
+        <v>0.04874416390167745</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02225739647349381</v>
+        <v>0.03029710482971043</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1630,78 +1630,78 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.1203886240019933</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.09740485509092371</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_targeted_per_match</t>
+          <t>count_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.937314439946019</v>
+        <v>0.01453440199611724</v>
       </c>
       <c r="C36" t="n">
-        <v>2.249744481323428</v>
+        <v>0.02103707289223229</v>
       </c>
       <c r="D36" t="n">
-        <v>30.56</v>
+        <v>-30.91</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3257527144369008</v>
+        <v>0.01328065486759491</v>
       </c>
       <c r="F36" t="n">
-        <v>0.431281182609265</v>
+        <v>0.02027000101188454</v>
       </c>
       <c r="G36" t="n">
-        <v>2.578947368421053</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.594594594594595</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.41025641025641</v>
+        <v>0.02502051682379551</v>
       </c>
       <c r="J36" t="n">
-        <v>3.216216216216216</v>
+        <v>0.04954463233443651</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_leading_to_goal_per_match</t>
+          <t>count_pulling_half_space_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.05337381916329285</v>
+        <v>2.695509656557834</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04092250144881723</v>
+        <v>2.062429863011262</v>
       </c>
       <c r="D37" t="n">
-        <v>30.43</v>
+        <v>30.7</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05330014996741034</v>
+        <v>0.3052672776381621</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03310540249810451</v>
+        <v>0.3956781257907796</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.352275186041343</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.455257347947204</v>
       </c>
       <c r="I37" t="n">
-        <v>0.131578947368421</v>
+        <v>3.129585155517366</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1052631578947368</v>
+        <v>2.940041196086248</v>
       </c>
     </row>
     <row r="38">
@@ -1711,99 +1711,99 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.09041587944219523</v>
+        <v>0.08295721025358063</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06951475159369896</v>
+        <v>0.06367787299156641</v>
       </c>
       <c r="D38" t="n">
-        <v>30.07</v>
+        <v>30.28</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01191209327862253</v>
+        <v>0.0111987663181525</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01457327329357935</v>
+        <v>0.0132656599424702</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06369789807475451</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05</v>
+        <v>0.04584127275615851</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1002777777777778</v>
+        <v>0.09237078610358058</v>
       </c>
       <c r="J38" t="n">
-        <v>0.102972972972973</v>
+        <v>0.09379055608161022</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_underlap_runs_per_match</t>
+          <t>count_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.24646873594242</v>
+        <v>2.851306591071585</v>
       </c>
       <c r="C39" t="n">
-        <v>1.74034034034034</v>
+        <v>2.203878251205587</v>
       </c>
       <c r="D39" t="n">
-        <v>29.08</v>
+        <v>29.38</v>
       </c>
       <c r="E39" t="n">
-        <v>0.392985697609222</v>
+        <v>0.3392960585767652</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5435610234301476</v>
+        <v>0.4287361107901632</v>
       </c>
       <c r="G39" t="n">
-        <v>1.888888888888889</v>
+        <v>2.400702422074053</v>
       </c>
       <c r="H39" t="n">
-        <v>1.052631578947368</v>
+        <v>1.390697139808258</v>
       </c>
       <c r="I39" t="n">
-        <v>2.710526315789474</v>
+        <v>3.296753238617268</v>
       </c>
       <c r="J39" t="n">
-        <v>2.973684210526316</v>
+        <v>3.011782482727697</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_received_per_match</t>
+          <t>count_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.099910031488979</v>
+        <v>2.061489339049875</v>
       </c>
       <c r="C40" t="n">
-        <v>2.405281597386861</v>
+        <v>1.593461082934175</v>
       </c>
       <c r="D40" t="n">
-        <v>28.88</v>
+        <v>29.37</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3555903107962306</v>
+        <v>0.3580925446570068</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4705624361185042</v>
+        <v>0.4978685115150221</v>
       </c>
       <c r="G40" t="n">
-        <v>2.631578947368421</v>
+        <v>1.744954995460949</v>
       </c>
       <c r="H40" t="n">
-        <v>1.526315789473684</v>
+        <v>0.9598199153576272</v>
       </c>
       <c r="I40" t="n">
-        <v>3.555555555555555</v>
+        <v>2.469801315408472</v>
       </c>
       <c r="J40" t="n">
-        <v>3.297297297297297</v>
+        <v>2.714500015455587</v>
       </c>
     </row>
     <row r="41">
@@ -1813,31 +1813,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6945569050832209</v>
+        <v>0.6386109250985379</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5399109635951741</v>
+        <v>0.4942073101038889</v>
       </c>
       <c r="D41" t="n">
-        <v>28.64</v>
+        <v>29.22</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1549927121710436</v>
+        <v>0.1416578577909811</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1227719621647124</v>
+        <v>0.1110257758903216</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.4569705646516868</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.3482596871870445</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8158045101790571</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.6917804751254433</v>
       </c>
     </row>
     <row r="42">
@@ -1847,99 +1847,99 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.07833423301844354</v>
+        <v>0.07191221658528421</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06111527316790474</v>
+        <v>0.05609359980308355</v>
       </c>
       <c r="D42" t="n">
-        <v>28.17</v>
+        <v>28.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01598383721406147</v>
+        <v>0.0148345407836715</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0163184926058692</v>
+        <v>0.01494094004609534</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06710526315789474</v>
+        <v>0.06206962797417452</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.040700681028088</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1061111111111111</v>
+        <v>0.09783996232155556</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1044736842105263</v>
+        <v>0.09581417455508344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_threat_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.360201754385965</v>
+        <v>2.653656116938272</v>
       </c>
       <c r="C43" t="n">
-        <v>1.851026842632106</v>
+        <v>2.074720327016023</v>
       </c>
       <c r="D43" t="n">
-        <v>27.51</v>
+        <v>27.9</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3291581102713441</v>
+        <v>0.3571479738898311</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2890131172919619</v>
+        <v>0.390747294693008</v>
       </c>
       <c r="G43" t="n">
-        <v>1.97</v>
+        <v>2.257140993367801</v>
       </c>
       <c r="H43" t="n">
-        <v>1.136052631578947</v>
+        <v>1.341443683443271</v>
       </c>
       <c r="I43" t="n">
-        <v>2.686578947368421</v>
+        <v>3.219896002984794</v>
       </c>
       <c r="J43" t="n">
-        <v>2.250810810810811</v>
+        <v>2.81724469424247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_received_per_match</t>
+          <t>cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.884457939721098</v>
+        <v>2.169546525395972</v>
       </c>
       <c r="C44" t="n">
-        <v>2.264235287919498</v>
+        <v>1.696974342658575</v>
       </c>
       <c r="D44" t="n">
-        <v>27.39</v>
+        <v>27.85</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3723489687701702</v>
+        <v>0.3064674356371629</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4285592242652512</v>
+        <v>0.265461870040744</v>
       </c>
       <c r="G44" t="n">
-        <v>2.473684210526316</v>
+        <v>1.79681783834656</v>
       </c>
       <c r="H44" t="n">
-        <v>1.473684210526316</v>
+        <v>1.043160960364649</v>
       </c>
       <c r="I44" t="n">
-        <v>3.472222222222222</v>
+        <v>2.45843849095766</v>
       </c>
       <c r="J44" t="n">
-        <v>3.081081081081081</v>
+        <v>2.077578587325345</v>
       </c>
     </row>
     <row r="45">
@@ -1949,99 +1949,99 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10.10836707152497</v>
+        <v>9.286883969775865</v>
       </c>
       <c r="C45" t="n">
-        <v>7.936151941415099</v>
+        <v>7.286180287030634</v>
       </c>
       <c r="D45" t="n">
-        <v>27.37</v>
+        <v>27.46</v>
       </c>
       <c r="E45" t="n">
-        <v>1.627714683076889</v>
+        <v>1.498580281077224</v>
       </c>
       <c r="F45" t="n">
-        <v>1.799581578580872</v>
+        <v>1.649923748946067</v>
       </c>
       <c r="G45" t="n">
-        <v>7.263157894736842</v>
+        <v>6.659958043685802</v>
       </c>
       <c r="H45" t="n">
-        <v>5.447368421052632</v>
+        <v>5.015946968229855</v>
       </c>
       <c r="I45" t="n">
-        <v>11.28947368421053</v>
+        <v>10.28622195743265</v>
       </c>
       <c r="J45" t="n">
-        <v>11.42105263157895</v>
+        <v>10.48472016695967</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_support_runs_targeted_per_match</t>
+          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.985425101214575</v>
+        <v>0.2916978700239132</v>
       </c>
       <c r="C46" t="n">
-        <v>1.570973605184131</v>
+        <v>0.2292863974639935</v>
       </c>
       <c r="D46" t="n">
-        <v>26.38</v>
+        <v>27.22</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2035716745393448</v>
+        <v>0.0690430002798879</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3498418723364577</v>
+        <v>0.08787818589423624</v>
       </c>
       <c r="G46" t="n">
-        <v>1.769230769230769</v>
+        <v>0.2341187556113874</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.09669518318043524</v>
       </c>
       <c r="I46" t="n">
-        <v>2.315789473684211</v>
+        <v>0.4083045611503147</v>
       </c>
       <c r="J46" t="n">
-        <v>2.135135135135135</v>
+        <v>0.3692327619111946</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>count_dangerous_support_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3176563202878993</v>
+        <v>1.822412592915575</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2515752594699963</v>
+        <v>1.439071002681406</v>
       </c>
       <c r="D47" t="n">
-        <v>26.27</v>
+        <v>26.64</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07696801516896117</v>
+        <v>0.1775615716236729</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09641071513793061</v>
+        <v>0.3216240465331449</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2564102564102564</v>
+        <v>1.626987803398136</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.8343600763564409</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4473684210526316</v>
+        <v>2.105737971495089</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4054054054054054</v>
+        <v>1.970515075683444</v>
       </c>
     </row>
     <row r="48">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1271538461538462</v>
+        <v>0.1167322340185341</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1016977503819609</v>
+        <v>0.09315868240208595</v>
       </c>
       <c r="D48" t="n">
-        <v>25.03</v>
+        <v>25.3</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0206369347418396</v>
+        <v>0.01914405456739806</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02675260552782421</v>
+        <v>0.02455973441513636</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0941025641025641</v>
+        <v>0.08609511702886211</v>
       </c>
       <c r="H48" t="n">
-        <v>0.06526315789473684</v>
+        <v>0.0597956130993708</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1447368421052632</v>
+        <v>0.1322386153267514</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1697368421052632</v>
+        <v>0.1554877699367438</v>
       </c>
     </row>
     <row r="49">
@@ -2085,31 +2085,31 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.520107962213225</v>
+        <v>1.394731129110182</v>
       </c>
       <c r="C49" t="n">
-        <v>1.219042726937464</v>
+        <v>1.114785721532094</v>
       </c>
       <c r="D49" t="n">
-        <v>24.7</v>
+        <v>25.11</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09707387108603405</v>
+        <v>0.09550814173032209</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2792932369964938</v>
+        <v>0.255173987462938</v>
       </c>
       <c r="G49" t="n">
-        <v>1.394736842105263</v>
+        <v>1.269279578217983</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6715789033587697</v>
       </c>
       <c r="I49" t="n">
-        <v>1.666666666666667</v>
+        <v>1.538359673522937</v>
       </c>
       <c r="J49" t="n">
-        <v>1.810810810810811</v>
+        <v>1.651622225122984</v>
       </c>
     </row>
     <row r="50">
@@ -2119,31 +2119,31 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8.041700404858299</v>
+        <v>7.387257856851453</v>
       </c>
       <c r="C50" t="n">
-        <v>6.463231652705337</v>
+        <v>5.928904896874652</v>
       </c>
       <c r="D50" t="n">
-        <v>24.42</v>
+        <v>24.6</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6306173256511676</v>
+        <v>0.583987155783372</v>
       </c>
       <c r="F50" t="n">
-        <v>1.149834158325697</v>
+        <v>1.05163540122231</v>
       </c>
       <c r="G50" t="n">
-        <v>7.263157894736842</v>
+        <v>6.696975978872775</v>
       </c>
       <c r="H50" t="n">
-        <v>4.315789473684211</v>
+        <v>3.957914364215352</v>
       </c>
       <c r="I50" t="n">
-        <v>8.789473684210526</v>
+        <v>8.05704814043629</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>7.384797354435909</v>
       </c>
     </row>
     <row r="51">
@@ -2153,99 +2153,99 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>29.99635627530364</v>
+        <v>27.5554638649585</v>
       </c>
       <c r="C51" t="n">
-        <v>24.24060376165639</v>
+        <v>22.22617327838778</v>
       </c>
       <c r="D51" t="n">
-        <v>23.74</v>
+        <v>23.98</v>
       </c>
       <c r="E51" t="n">
-        <v>2.700467225181028</v>
+        <v>2.519150568497102</v>
       </c>
       <c r="F51" t="n">
-        <v>3.840801389437518</v>
+        <v>3.510275058030135</v>
       </c>
       <c r="G51" t="n">
-        <v>26.81578947368421</v>
+        <v>24.45926443376316</v>
       </c>
       <c r="H51" t="n">
-        <v>15.97368421052632</v>
+        <v>14.67162422849169</v>
       </c>
       <c r="I51" t="n">
-        <v>33.36842105263158</v>
+        <v>30.54060446961633</v>
       </c>
       <c r="J51" t="n">
-        <v>29.54054054054054</v>
+        <v>26.94677415017803</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_leading_to_shot_per_match</t>
+          <t>count_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.630994152046783</v>
+        <v>26.44269533101238</v>
       </c>
       <c r="C52" t="n">
-        <v>1.320365101944049</v>
+        <v>21.38254292253769</v>
       </c>
       <c r="D52" t="n">
-        <v>23.53</v>
+        <v>23.66</v>
       </c>
       <c r="E52" t="n">
-        <v>0.11291245273588</v>
+        <v>2.374635022892507</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3066220147893173</v>
+        <v>3.327724630052371</v>
       </c>
       <c r="G52" t="n">
-        <v>1.473684210526316</v>
+        <v>23.35659247222813</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9473684210526315</v>
+        <v>14.13572468896452</v>
       </c>
       <c r="I52" t="n">
-        <v>1.777777777777778</v>
+        <v>29.00252032557379</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>25.79234002137786</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>28.7838056680162</v>
+        <v>1.495825945233006</v>
       </c>
       <c r="C53" t="n">
-        <v>23.31963542489858</v>
+        <v>1.20991207996231</v>
       </c>
       <c r="D53" t="n">
-        <v>23.43</v>
+        <v>23.63</v>
       </c>
       <c r="E53" t="n">
-        <v>2.535479517213568</v>
+        <v>0.1080248779689169</v>
       </c>
       <c r="F53" t="n">
-        <v>3.637214346502427</v>
+        <v>0.2817260197729936</v>
       </c>
       <c r="G53" t="n">
-        <v>25.60526315789474</v>
+        <v>1.363856619142759</v>
       </c>
       <c r="H53" t="n">
-        <v>15.39473684210526</v>
+        <v>0.867979585661915</v>
       </c>
       <c r="I53" t="n">
-        <v>31.68421052631579</v>
+        <v>1.648274172163109</v>
       </c>
       <c r="J53" t="n">
-        <v>28</v>
+        <v>1.825376282964625</v>
       </c>
     </row>
     <row r="54">
@@ -2255,31 +2255,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.661853351327035</v>
+        <v>7.038861385130202</v>
       </c>
       <c r="C54" t="n">
-        <v>6.209928349402035</v>
+        <v>5.697988035678715</v>
       </c>
       <c r="D54" t="n">
-        <v>23.38</v>
+        <v>23.53</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5430658828448487</v>
+        <v>0.5079909956427521</v>
       </c>
       <c r="F54" t="n">
-        <v>1.101510832270503</v>
+        <v>1.009091026725562</v>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>6.452726833212053</v>
       </c>
       <c r="H54" t="n">
-        <v>4.210526315789473</v>
+        <v>3.860942601033774</v>
       </c>
       <c r="I54" t="n">
-        <v>8.222222222222221</v>
+        <v>7.592357700084228</v>
       </c>
       <c r="J54" t="n">
-        <v>7.864864864864865</v>
+        <v>7.259466603646016</v>
       </c>
     </row>
     <row r="55">
@@ -2289,31 +2289,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.425686009896536</v>
+        <v>1.309627349383883</v>
       </c>
       <c r="C55" t="n">
-        <v>1.159630683314894</v>
+        <v>1.062334607315012</v>
       </c>
       <c r="D55" t="n">
-        <v>22.94</v>
+        <v>23.28</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2451935749828379</v>
+        <v>0.22422806163319</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2868476804153452</v>
+        <v>0.261987235187448</v>
       </c>
       <c r="G55" t="n">
-        <v>1.210526315789474</v>
+        <v>1.106384859208966</v>
       </c>
       <c r="H55" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6557019247992903</v>
       </c>
       <c r="I55" t="n">
-        <v>1.789473684210526</v>
+        <v>1.635557684084423</v>
       </c>
       <c r="J55" t="n">
-        <v>1.526315789473684</v>
+        <v>1.396821645983324</v>
       </c>
     </row>
     <row r="56">
@@ -2323,31 +2323,31 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10.82645074224022</v>
+        <v>9.944708485540231</v>
       </c>
       <c r="C56" t="n">
-        <v>8.820831357673462</v>
+        <v>8.098571657975887</v>
       </c>
       <c r="D56" t="n">
-        <v>22.74</v>
+        <v>22.8</v>
       </c>
       <c r="E56" t="n">
-        <v>1.775049556826218</v>
+        <v>1.629138527342957</v>
       </c>
       <c r="F56" t="n">
-        <v>1.897100025418392</v>
+        <v>1.739581614945234</v>
       </c>
       <c r="G56" t="n">
-        <v>7.763157894736842</v>
+        <v>7.116531499723519</v>
       </c>
       <c r="H56" t="n">
-        <v>6.210526315789473</v>
+        <v>5.714814673946093</v>
       </c>
       <c r="I56" t="n">
-        <v>12.31578947368421</v>
+        <v>11.22689972840834</v>
       </c>
       <c r="J56" t="n">
-        <v>12.5</v>
+        <v>11.46891074994242</v>
       </c>
     </row>
     <row r="57">
@@ -2357,31 +2357,31 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7.635290148448043</v>
+        <v>7.003623760274257</v>
       </c>
       <c r="C57" t="n">
-        <v>6.254433380749171</v>
+        <v>5.737254817128554</v>
       </c>
       <c r="D57" t="n">
-        <v>22.08</v>
+        <v>22.07</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2959833688697603</v>
+        <v>0.265155060981382</v>
       </c>
       <c r="F57" t="n">
-        <v>1.104254476855095</v>
+        <v>1.023344015118938</v>
       </c>
       <c r="G57" t="n">
-        <v>7.461538461538462</v>
+        <v>6.816962142102531</v>
       </c>
       <c r="H57" t="n">
-        <v>4.552631578947368</v>
+        <v>4.171316236458483</v>
       </c>
       <c r="I57" t="n">
-        <v>8.157894736842104</v>
+        <v>7.456636801143724</v>
       </c>
       <c r="J57" t="n">
-        <v>8.162162162162161</v>
+        <v>7.531167690941456</v>
       </c>
     </row>
     <row r="58">
@@ -2391,99 +2391,99 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.109671614934773</v>
+        <v>1.942751348406099</v>
       </c>
       <c r="C58" t="n">
-        <v>1.739763447658184</v>
+        <v>1.596102137278434</v>
       </c>
       <c r="D58" t="n">
-        <v>21.26</v>
+        <v>21.72</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1934662039142407</v>
+        <v>0.1874317131360521</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4090452409192762</v>
+        <v>0.3747448306860802</v>
       </c>
       <c r="G58" t="n">
-        <v>1.947368421052632</v>
+        <v>1.773387796870127</v>
       </c>
       <c r="H58" t="n">
-        <v>1.078947368421053</v>
+        <v>0.9907418611498434</v>
       </c>
       <c r="I58" t="n">
-        <v>2.444444444444445</v>
+        <v>2.263195223733467</v>
       </c>
       <c r="J58" t="n">
-        <v>2.526315789473684</v>
+        <v>2.319643524511306</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_per_match</t>
+          <t>support_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10.42759784075574</v>
+        <v>0.1333215084652762</v>
       </c>
       <c r="C59" t="n">
-        <v>8.637764079869346</v>
+        <v>0.1103351005323883</v>
       </c>
       <c r="D59" t="n">
-        <v>20.72</v>
+        <v>20.83</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7960902760476362</v>
+        <v>0.0117173128562603</v>
       </c>
       <c r="F59" t="n">
-        <v>1.869890627134671</v>
+        <v>0.01680807088125445</v>
       </c>
       <c r="G59" t="n">
-        <v>9.394736842105264</v>
+        <v>0.1133258079456649</v>
       </c>
       <c r="H59" t="n">
-        <v>6.052631578947368</v>
+        <v>0.07901143724323012</v>
       </c>
       <c r="I59" t="n">
-        <v>11.25641025641026</v>
+        <v>0.1422687743188243</v>
       </c>
       <c r="J59" t="n">
-        <v>12.43243243243243</v>
+        <v>0.1391884464075217</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>support_runs_targeted_threat_per_match</t>
+          <t>count_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1451578947368421</v>
+        <v>9.565655273456851</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1204307201938781</v>
+        <v>7.919835153614173</v>
       </c>
       <c r="D60" t="n">
-        <v>20.53</v>
+        <v>20.78</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01299954423047444</v>
+        <v>0.7779961635349326</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01841932936345165</v>
+        <v>1.705825045438862</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1233333333333334</v>
+        <v>8.549268379946687</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08638888888888889</v>
+        <v>5.562403553890868</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1557894736842105</v>
+        <v>10.33248753028253</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1518421052631579</v>
+        <v>11.34593358485332</v>
       </c>
     </row>
     <row r="61">
@@ -2493,31 +2493,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8.377800269905533</v>
+        <v>7.686742623364319</v>
       </c>
       <c r="C61" t="n">
-        <v>6.970902481428796</v>
+        <v>6.387659010275792</v>
       </c>
       <c r="D61" t="n">
-        <v>20.18</v>
+        <v>20.34</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8342865545391275</v>
+        <v>0.7209463091027732</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9873516898494341</v>
+        <v>0.9111402559248402</v>
       </c>
       <c r="G61" t="n">
-        <v>7.421052631578948</v>
+        <v>6.855637092152613</v>
       </c>
       <c r="H61" t="n">
-        <v>4.815789473684211</v>
+        <v>4.409079428122048</v>
       </c>
       <c r="I61" t="n">
-        <v>9.368421052631579</v>
+        <v>8.541747444675584</v>
       </c>
       <c r="J61" t="n">
-        <v>8.394736842105264</v>
+        <v>7.709958478913966</v>
       </c>
     </row>
     <row r="62">
@@ -2527,99 +2527,99 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1923178137651822</v>
+        <v>0.1764512484169896</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1602400821874506</v>
+        <v>0.1468635504518062</v>
       </c>
       <c r="D62" t="n">
-        <v>20.02</v>
+        <v>20.15</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0114865948209898</v>
+        <v>0.0113011151790694</v>
       </c>
       <c r="F62" t="n">
-        <v>0.03249082974846224</v>
+        <v>0.02996394060251202</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1812820512820513</v>
+        <v>0.1660164282394983</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.09809425070489172</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2108333333333333</v>
+        <v>0.1953074504938768</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2221621621621622</v>
+        <v>0.205115617510553</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_received_per_match</t>
+          <t>runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7.086144849302744</v>
+        <v>1.052880771338934</v>
       </c>
       <c r="C63" t="n">
-        <v>5.906440651177493</v>
+        <v>0.8769136279532853</v>
       </c>
       <c r="D63" t="n">
-        <v>19.97</v>
+        <v>20.07</v>
       </c>
       <c r="E63" t="n">
-        <v>2.893810523298234</v>
+        <v>0.1215031453453951</v>
       </c>
       <c r="F63" t="n">
-        <v>1.081433102429271</v>
+        <v>0.1541510028901386</v>
       </c>
       <c r="G63" t="n">
-        <v>4.684210526315789</v>
+        <v>0.948362731690545</v>
       </c>
       <c r="H63" t="n">
-        <v>4.394736842105263</v>
+        <v>0.7105052858799453</v>
       </c>
       <c r="I63" t="n">
-        <v>11.74358974358974</v>
+        <v>1.261082387511449</v>
       </c>
       <c r="J63" t="n">
-        <v>7.605263157894737</v>
+        <v>1.186232653540261</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_threat_per_match</t>
+          <t>count_dropping_off_runs_received_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.146149572649573</v>
+        <v>6.504506167952544</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9568428165007112</v>
+        <v>5.418468800903653</v>
       </c>
       <c r="D64" t="n">
-        <v>19.78</v>
+        <v>20.04</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1273324941485441</v>
+        <v>2.646241845602038</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1680284872285414</v>
+        <v>1.003053512241368</v>
       </c>
       <c r="G64" t="n">
-        <v>1.042631578947368</v>
+        <v>4.294936862596999</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7730555555555556</v>
+        <v>3.990089823474471</v>
       </c>
       <c r="I64" t="n">
-        <v>1.366388888888889</v>
+        <v>10.7732160065773</v>
       </c>
       <c r="J64" t="n">
-        <v>1.298378378378378</v>
+        <v>6.984462472745594</v>
       </c>
     </row>
     <row r="65">
@@ -2629,99 +2629,99 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>19.25636527215475</v>
+        <v>17.69316974899422</v>
       </c>
       <c r="C65" t="n">
-        <v>16.10253411306043</v>
+        <v>14.76518501050358</v>
       </c>
       <c r="D65" t="n">
-        <v>19.59</v>
+        <v>19.83</v>
       </c>
       <c r="E65" t="n">
-        <v>2.808778556707441</v>
+        <v>2.657356114100246</v>
       </c>
       <c r="F65" t="n">
-        <v>3.270603509692636</v>
+        <v>2.999298056672962</v>
       </c>
       <c r="G65" t="n">
-        <v>16.84210526315789</v>
+        <v>15.3360798057525</v>
       </c>
       <c r="H65" t="n">
-        <v>12.33333333333333</v>
+        <v>11.34162554550357</v>
       </c>
       <c r="I65" t="n">
-        <v>23.94444444444444</v>
+        <v>22.10536534110366</v>
       </c>
       <c r="J65" t="n">
-        <v>22.2972972972973</v>
+        <v>20.39150859733836</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_per_match</t>
+          <t>dropping_off_runs_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.147840755735492</v>
+        <v>0.003347351535970121</v>
       </c>
       <c r="C66" t="n">
-        <v>5.147213002476161</v>
+        <v>0.002797122123427993</v>
       </c>
       <c r="D66" t="n">
-        <v>19.44</v>
+        <v>19.67</v>
       </c>
       <c r="E66" t="n">
-        <v>1.008863278330527</v>
+        <v>0.0008076461410904389</v>
       </c>
       <c r="F66" t="n">
-        <v>1.328447631141349</v>
+        <v>0.001169228201569186</v>
       </c>
       <c r="G66" t="n">
-        <v>4.410256410256411</v>
+        <v>0.002152510184849969</v>
       </c>
       <c r="H66" t="n">
-        <v>3.405405405405405</v>
+        <v>0.001238276665069131</v>
       </c>
       <c r="I66" t="n">
-        <v>7</v>
+        <v>0.004334007209483902</v>
       </c>
       <c r="J66" t="n">
-        <v>8.657894736842104</v>
+        <v>0.005548564794837627</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.04709851551956815</v>
+        <v>5.642482099121277</v>
       </c>
       <c r="C67" t="n">
-        <v>0.05841894526105053</v>
+        <v>4.716525603981409</v>
       </c>
       <c r="D67" t="n">
-        <v>-19.38</v>
+        <v>19.63</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0287721703585057</v>
+        <v>0.9344256796591376</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03003298916524098</v>
+        <v>1.220077129173788</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>4.03643144637353</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3.106749712162765</v>
       </c>
       <c r="I67" t="n">
-        <v>0.07894736842105263</v>
+        <v>6.460580286784198</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1052631578947368</v>
+        <v>7.939219641916283</v>
       </c>
     </row>
     <row r="68">
@@ -2731,269 +2731,269 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1113268106162843</v>
+        <v>0.1022817800059964</v>
       </c>
       <c r="C68" t="n">
-        <v>0.09331858173963438</v>
+        <v>0.08551154051887529</v>
       </c>
       <c r="D68" t="n">
-        <v>19.3</v>
+        <v>19.61</v>
       </c>
       <c r="E68" t="n">
-        <v>0.01326394753685005</v>
+        <v>0.01227470549900436</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01618943678558971</v>
+        <v>0.01473512014508722</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09179487179487179</v>
+        <v>0.0842529777518319</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07027777777777777</v>
+        <v>0.0641732293714708</v>
       </c>
       <c r="I68" t="n">
-        <v>0.125</v>
+        <v>0.114308373117476</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1163157894736842</v>
+        <v>0.106447541168233</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_targeted_threat_per_match</t>
+          <t>count_dangerous_runs_in_behind_received_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.003659694107062528</v>
+        <v>2.985150267894659</v>
       </c>
       <c r="C69" t="n">
-        <v>0.003067936357410042</v>
+        <v>2.498952379921702</v>
       </c>
       <c r="D69" t="n">
-        <v>19.29</v>
+        <v>19.46</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000873217718864229</v>
+        <v>0.3781567567806401</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001276057647567353</v>
+        <v>0.6210251640352529</v>
       </c>
       <c r="G69" t="n">
-        <v>0.002368421052631579</v>
+        <v>2.530954188973138</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00131578947368421</v>
+        <v>1.58726300230745</v>
       </c>
       <c r="I69" t="n">
-        <v>0.004722222222222221</v>
+        <v>3.573441939361512</v>
       </c>
       <c r="J69" t="n">
-        <v>0.006052631578947369</v>
+        <v>3.642637293072449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_runs_in_behind_received_per_match</t>
+          <t>count_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3.250224921277553</v>
+        <v>6.689417110185673</v>
       </c>
       <c r="C70" t="n">
-        <v>2.725335862177967</v>
+        <v>5.629426371053902</v>
       </c>
       <c r="D70" t="n">
-        <v>19.26</v>
+        <v>18.83</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3954381689138726</v>
+        <v>2.714189609481426</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6760009562418434</v>
+        <v>1.01552129715334</v>
       </c>
       <c r="G70" t="n">
-        <v>2.763157894736842</v>
+        <v>4.391227887891177</v>
       </c>
       <c r="H70" t="n">
-        <v>1.722222222222222</v>
+        <v>4.206712042754978</v>
       </c>
       <c r="I70" t="n">
-        <v>3.861111111111111</v>
+        <v>11.05679205803494</v>
       </c>
       <c r="J70" t="n">
-        <v>3.945945945945946</v>
+        <v>7.315089801956585</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.244331983805668</v>
+        <v>33.65880454098091</v>
       </c>
       <c r="C71" t="n">
-        <v>0.205732047837311</v>
+        <v>28.36428410744701</v>
       </c>
       <c r="D71" t="n">
-        <v>18.76</v>
+        <v>18.67</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1050771090176899</v>
+        <v>2.170478372929206</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09538806045009125</v>
+        <v>4.46715689559815</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07692307692307693</v>
+        <v>30.56867165530347</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02631578947368421</v>
+        <v>22.12972474741512</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3684210526315789</v>
+        <v>36.34610190226297</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3513513513513514</v>
+        <v>37.38708456337615</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_targeted_per_match</t>
+          <t>count_runs_in_behind_targeted_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7.287449392712551</v>
+        <v>13.68186570728176</v>
       </c>
       <c r="C72" t="n">
-        <v>6.136689320899847</v>
+        <v>11.5365441783737</v>
       </c>
       <c r="D72" t="n">
-        <v>18.75</v>
+        <v>18.6</v>
       </c>
       <c r="E72" t="n">
-        <v>2.966597674692693</v>
+        <v>1.369912742176739</v>
       </c>
       <c r="F72" t="n">
-        <v>1.093925694509247</v>
+        <v>1.797521071815398</v>
       </c>
       <c r="G72" t="n">
-        <v>4.789473684210527</v>
+        <v>12.13036914814492</v>
       </c>
       <c r="H72" t="n">
-        <v>4.631578947368421</v>
+        <v>8.588201074624921</v>
       </c>
       <c r="I72" t="n">
-        <v>12.05128205128205</v>
+        <v>15.43666633040587</v>
       </c>
       <c r="J72" t="n">
-        <v>7.918918918918919</v>
+        <v>14.43797644113993</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_targeted_per_match</t>
+          <t>overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>14.90389113810166</v>
+        <v>0.1548122884455701</v>
       </c>
       <c r="C73" t="n">
-        <v>12.57647120805015</v>
+        <v>0.1305741931439014</v>
       </c>
       <c r="D73" t="n">
-        <v>18.51</v>
+        <v>18.56</v>
       </c>
       <c r="E73" t="n">
-        <v>1.553840771894302</v>
+        <v>0.02577250489506141</v>
       </c>
       <c r="F73" t="n">
-        <v>1.937924519402711</v>
+        <v>0.0275777558021047</v>
       </c>
       <c r="G73" t="n">
-        <v>13.2051282051282</v>
+        <v>0.1361393916028514</v>
       </c>
       <c r="H73" t="n">
-        <v>9.368421052631579</v>
+        <v>0.1006106634053962</v>
       </c>
       <c r="I73" t="n">
-        <v>16.86842105263158</v>
+        <v>0.1991354183417316</v>
       </c>
       <c r="J73" t="n">
-        <v>15.64864864864865</v>
+        <v>0.1935925734322033</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_per_match</t>
+          <t>count_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>36.63954116059379</v>
+        <v>0.2229332193224324</v>
       </c>
       <c r="C74" t="n">
-        <v>30.93229018492176</v>
+        <v>0.1882951873893342</v>
       </c>
       <c r="D74" t="n">
-        <v>18.45</v>
+        <v>18.4</v>
       </c>
       <c r="E74" t="n">
-        <v>2.21492938869965</v>
+        <v>0.09616125911205579</v>
       </c>
       <c r="F74" t="n">
-        <v>4.852304362910053</v>
+        <v>0.08707950357307728</v>
       </c>
       <c r="G74" t="n">
-        <v>33.55263157894737</v>
+        <v>0.07002099470873552</v>
       </c>
       <c r="H74" t="n">
-        <v>24.15789473684211</v>
+        <v>0.0236532248018254</v>
       </c>
       <c r="I74" t="n">
-        <v>39.33333333333334</v>
+        <v>0.3363771196155942</v>
       </c>
       <c r="J74" t="n">
-        <v>40.94594594594594</v>
+        <v>0.3169265770712284</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1684392712550608</v>
+        <v>0.04343736603233875</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1423830145935409</v>
+        <v>0.05319637824434031</v>
       </c>
       <c r="D75" t="n">
-        <v>18.3</v>
+        <v>-18.35</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02779600046811901</v>
+        <v>0.02675052708108126</v>
       </c>
       <c r="F75" t="n">
-        <v>0.03019361631700007</v>
+        <v>0.02705699871199252</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1482051282051282</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1094736842105263</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2158333333333333</v>
+        <v>0.07372817543313445</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2110526315789474</v>
+        <v>0.09827802375927948</v>
       </c>
     </row>
     <row r="76">
@@ -3003,167 +3003,167 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.433153396311291</v>
+        <v>4.076059619421185</v>
       </c>
       <c r="C76" t="n">
-        <v>3.766066066066066</v>
+        <v>3.454196137576852</v>
       </c>
       <c r="D76" t="n">
-        <v>17.71</v>
+        <v>18</v>
       </c>
       <c r="E76" t="n">
-        <v>1.156829348441194</v>
+        <v>1.076972607672211</v>
       </c>
       <c r="F76" t="n">
-        <v>1.045126211189885</v>
+        <v>0.9537681185695004</v>
       </c>
       <c r="G76" t="n">
-        <v>3.58974358974359</v>
+        <v>3.298379398537224</v>
       </c>
       <c r="H76" t="n">
-        <v>2.243243243243243</v>
+        <v>2.082971697492324</v>
       </c>
       <c r="I76" t="n">
-        <v>6.444444444444445</v>
+        <v>5.956274831570713</v>
       </c>
       <c r="J76" t="n">
-        <v>6.526315789473684</v>
+        <v>5.983690821284509</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>support_runs_threat_per_match</t>
+          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5521093117408907</v>
+        <v>0.2248306237521426</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4731044202096834</v>
+        <v>0.1917263023899059</v>
       </c>
       <c r="D77" t="n">
-        <v>16.7</v>
+        <v>17.27</v>
       </c>
       <c r="E77" t="n">
-        <v>0.02820911903786186</v>
+        <v>0.06242460680935047</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05103959987708788</v>
+        <v>0.07952967479254672</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.1446053194504582</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3705263157894737</v>
+        <v>0.0721083255012272</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5905263157894737</v>
+        <v>0.3067034822481946</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5536842105263158</v>
+        <v>0.3368049594352455</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_targeted_threat_per_match</t>
+          <t>support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3825380116959065</v>
+        <v>0.506787328160509</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3281435382751172</v>
+        <v>0.4335650517878191</v>
       </c>
       <c r="D78" t="n">
-        <v>16.58</v>
+        <v>16.89</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03283118877942782</v>
+        <v>0.02362643922190916</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06031772185875034</v>
+        <v>0.04677966342435405</v>
       </c>
       <c r="G78" t="n">
-        <v>0.33</v>
+        <v>0.4768565730688981</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.3396688436239335</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4194736842105263</v>
+        <v>0.5380819666830455</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4354054054054054</v>
+        <v>0.5076816560846974</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>runs_in_behind_targeted_threat_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2443994601889339</v>
+        <v>0.351057901312641</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2100890364048259</v>
+        <v>0.3007488657664225</v>
       </c>
       <c r="D79" t="n">
-        <v>16.33</v>
+        <v>16.73</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06847839018709591</v>
+        <v>0.02937867015127468</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08723438463292786</v>
+        <v>0.05550159057815519</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.3027939424698123</v>
       </c>
       <c r="H79" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.2171476920272193</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3816688827298835</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.4014261839582894</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02690058479532164</v>
+        <v>1.221035860606317</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02323902850218639</v>
+        <v>1.053551185207452</v>
       </c>
       <c r="D80" t="n">
-        <v>15.76</v>
+        <v>15.9</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02706850716031138</v>
+        <v>0.150980295263717</v>
       </c>
       <c r="F80" t="n">
-        <v>0.02238885482422644</v>
+        <v>0.272174802883772</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1.102824841098995</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.7211711252969115</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05555555555555555</v>
+        <v>1.484416167277185</v>
       </c>
       <c r="J80" t="n">
-        <v>0.08108108108108109</v>
+        <v>1.518899896426249</v>
       </c>
     </row>
     <row r="81">
@@ -3173,99 +3173,99 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01723796671165092</v>
+        <v>0.01580720477332566</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01489916232021495</v>
+        <v>0.01366376541129052</v>
       </c>
       <c r="D81" t="n">
-        <v>15.7</v>
+        <v>15.69</v>
       </c>
       <c r="E81" t="n">
-        <v>0.002770824288671727</v>
+        <v>0.002517887287022013</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003971384744456091</v>
+        <v>0.003616438161579736</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01256410256410256</v>
+        <v>0.01155363264445019</v>
       </c>
       <c r="H81" t="n">
-        <v>0.00891891891891892</v>
+        <v>0.008128928528009388</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01921052631578947</v>
+        <v>0.01748690723743835</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02131578947368421</v>
+        <v>0.0194916976279654</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_leading_to_shot_per_match</t>
+          <t>coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.327327935222672</v>
+        <v>0.07072371963045007</v>
       </c>
       <c r="C82" t="n">
-        <v>1.151825509720247</v>
+        <v>0.06131152853847541</v>
       </c>
       <c r="D82" t="n">
-        <v>15.24</v>
+        <v>15.35</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1591960802236145</v>
+        <v>0.01606349596561448</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2970660301585621</v>
+        <v>0.01044472371247467</v>
       </c>
       <c r="G82" t="n">
-        <v>1.210526315789474</v>
+        <v>0.05189538325233687</v>
       </c>
       <c r="H82" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.04606368118524556</v>
       </c>
       <c r="I82" t="n">
-        <v>1.605263157894737</v>
+        <v>0.09361168965002603</v>
       </c>
       <c r="J82" t="n">
-        <v>1.657894736842105</v>
+        <v>0.08457586281106391</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_threat_per_match</t>
+          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.07703891138101665</v>
+        <v>0.009681080166954164</v>
       </c>
       <c r="C83" t="n">
-        <v>0.06688765080870344</v>
+        <v>0.01137675400005241</v>
       </c>
       <c r="D83" t="n">
-        <v>15.18</v>
+        <v>-14.9</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01731428213079586</v>
+        <v>0.01326897223169184</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01145330789954419</v>
+        <v>0.01260164026529347</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05657894736842105</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.05026315789473684</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1013888888888889</v>
+        <v>0.02502051682379551</v>
       </c>
       <c r="J83" t="n">
-        <v>0.09270270270270271</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="84">
@@ -3275,31 +3275,31 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5.396423751686909</v>
+        <v>4.958674728557406</v>
       </c>
       <c r="C84" t="n">
-        <v>4.706912175333229</v>
+        <v>4.31840152272048</v>
       </c>
       <c r="D84" t="n">
-        <v>14.65</v>
+        <v>14.83</v>
       </c>
       <c r="E84" t="n">
-        <v>1.179629274724207</v>
+        <v>1.100004065985086</v>
       </c>
       <c r="F84" t="n">
-        <v>1.259360700074032</v>
+        <v>1.149423086218598</v>
       </c>
       <c r="G84" t="n">
-        <v>4.512820512820513</v>
+        <v>4.141479800519609</v>
       </c>
       <c r="H84" t="n">
-        <v>3.027027027027027</v>
+        <v>2.807299920012503</v>
       </c>
       <c r="I84" t="n">
-        <v>7.416666666666667</v>
+        <v>6.854437186593263</v>
       </c>
       <c r="J84" t="n">
-        <v>8.078947368421053</v>
+        <v>7.405947254028958</v>
       </c>
     </row>
     <row r="85">
@@ -3309,31 +3309,31 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6.417791273054431</v>
+        <v>5.891091356781182</v>
       </c>
       <c r="C85" t="n">
-        <v>5.602678994784259</v>
+        <v>5.137539663861552</v>
       </c>
       <c r="D85" t="n">
-        <v>14.55</v>
+        <v>14.67</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4362695925391447</v>
+        <v>0.3956690255577738</v>
       </c>
       <c r="F85" t="n">
-        <v>1.264724850153716</v>
+        <v>1.161538522755712</v>
       </c>
       <c r="G85" t="n">
-        <v>5.897435897435898</v>
+        <v>5.419347253526736</v>
       </c>
       <c r="H85" t="n">
-        <v>3.638888888888889</v>
+        <v>3.353672695375268</v>
       </c>
       <c r="I85" t="n">
-        <v>6.921052631578948</v>
+        <v>6.297370330336608</v>
       </c>
       <c r="J85" t="n">
-        <v>7.918918918918919</v>
+        <v>7.300243676285747</v>
       </c>
     </row>
     <row r="86">
@@ -3343,65 +3343,65 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1838090418353576</v>
+        <v>0.168807108558092</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1611705126178811</v>
+        <v>0.147706955109867</v>
       </c>
       <c r="D86" t="n">
-        <v>14.05</v>
+        <v>14.29</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02750802587765593</v>
+        <v>0.02642850755429546</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02066447818240263</v>
+        <v>0.01879731122753851</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1547368421052631</v>
+        <v>0.1404208720795316</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1152631578947368</v>
+        <v>0.105838314877791</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2191666666666667</v>
+        <v>0.2026067251016182</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1729519558813431</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_dropping_off_runs_targeted_per_match</t>
+          <t>dropping_off_runs_received_threat_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.0108187134502924</v>
+        <v>0.002754821179999191</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0125204151519941</v>
+        <v>0.002420579208946876</v>
       </c>
       <c r="D87" t="n">
-        <v>-13.59</v>
+        <v>13.81</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01482314836916558</v>
+        <v>0.0006762250577317425</v>
       </c>
       <c r="F87" t="n">
-        <v>0.01385933388737947</v>
+        <v>0.0009422024263501859</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.001661136522478272</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.0009940226579263016</v>
       </c>
       <c r="I87" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.00352573064479348</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.004577242485185161</v>
       </c>
     </row>
     <row r="88">
@@ -3411,65 +3411,65 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.800427350427351</v>
+        <v>1.653803644605901</v>
       </c>
       <c r="C88" t="n">
-        <v>1.587587587587588</v>
+        <v>1.453403766490051</v>
       </c>
       <c r="D88" t="n">
-        <v>13.41</v>
+        <v>13.79</v>
       </c>
       <c r="E88" t="n">
-        <v>0.426934620853648</v>
+        <v>0.4070640959184257</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3495420854702911</v>
+        <v>0.3164020146844232</v>
       </c>
       <c r="G88" t="n">
-        <v>1.236842105263158</v>
+        <v>1.118424066940966</v>
       </c>
       <c r="H88" t="n">
-        <v>1.026315789473684</v>
+        <v>0.9402639057475803</v>
       </c>
       <c r="I88" t="n">
-        <v>2.361111111111111</v>
+        <v>2.181433498107151</v>
       </c>
       <c r="J88" t="n">
-        <v>2.289473684210526</v>
+        <v>2.073392253367062</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_received_threat_per_match</t>
+          <t>count_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.003011920827710302</v>
+        <v>0.02417722260772849</v>
       </c>
       <c r="C89" t="n">
-        <v>0.002655761024182077</v>
+        <v>0.02129354236854769</v>
       </c>
       <c r="D89" t="n">
-        <v>13.41</v>
+        <v>13.54</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0007261084522815897</v>
+        <v>0.02418067137959735</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001032551093133081</v>
+        <v>0.020375861812752</v>
       </c>
       <c r="G89" t="n">
-        <v>0.001842105263157895</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.001052631578947368</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.003846153846153846</v>
+        <v>0.04939399762792304</v>
       </c>
       <c r="J89" t="n">
-        <v>0.005</v>
+        <v>0.07395992148717608</v>
       </c>
     </row>
     <row r="90">
@@ -3479,31 +3479,31 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.02241408007197481</v>
+        <v>0.02054626960747757</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01977527527527527</v>
+        <v>0.01813421360298432</v>
       </c>
       <c r="D90" t="n">
-        <v>13.34</v>
+        <v>13.3</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00290366308867144</v>
+        <v>0.002655917476316673</v>
       </c>
       <c r="F90" t="n">
-        <v>0.004510832303516957</v>
+        <v>0.004109808286611267</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01743589743589744</v>
+        <v>0.01593960164513742</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01277777777777778</v>
+        <v>0.01183763535898087</v>
       </c>
       <c r="I90" t="n">
-        <v>0.025</v>
+        <v>0.02272370366716554</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02789473684210526</v>
+        <v>0.02553329476425963</v>
       </c>
     </row>
     <row r="91">
@@ -3513,31 +3513,31 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>11.43670715249663</v>
+        <v>10.50745008228815</v>
       </c>
       <c r="C91" t="n">
-        <v>10.14497128707655</v>
+        <v>9.30520498910613</v>
       </c>
       <c r="D91" t="n">
-        <v>12.73</v>
+        <v>12.92</v>
       </c>
       <c r="E91" t="n">
-        <v>1.085792652299693</v>
+        <v>1.015683746872855</v>
       </c>
       <c r="F91" t="n">
-        <v>1.143383184889132</v>
+        <v>1.036923209128443</v>
       </c>
       <c r="G91" t="n">
-        <v>10.13157894736842</v>
+        <v>9.268932286969882</v>
       </c>
       <c r="H91" t="n">
-        <v>7.657894736842105</v>
+        <v>7.042072580725946</v>
       </c>
       <c r="I91" t="n">
-        <v>12.83333333333333</v>
+        <v>11.86176538940869</v>
       </c>
       <c r="J91" t="n">
-        <v>12.05263157894737</v>
+        <v>11.06140823211627</v>
       </c>
     </row>
     <row r="92">
@@ -3547,31 +3547,31 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05545321637426901</v>
+        <v>0.05087437028309551</v>
       </c>
       <c r="C92" t="n">
-        <v>0.04922377640798693</v>
+        <v>0.0451024463699307</v>
       </c>
       <c r="D92" t="n">
-        <v>12.66</v>
+        <v>12.8</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004306045752930746</v>
+        <v>0.004001732421061585</v>
       </c>
       <c r="F92" t="n">
-        <v>0.008170314219389768</v>
+        <v>0.007443806199486787</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05</v>
+        <v>0.04580077941868854</v>
       </c>
       <c r="H92" t="n">
-        <v>0.03405405405405405</v>
+        <v>0.03109979521780654</v>
       </c>
       <c r="I92" t="n">
-        <v>0.05894736842105264</v>
+        <v>0.05411836852449353</v>
       </c>
       <c r="J92" t="n">
-        <v>0.06026315789473684</v>
+        <v>0.05491112421652161</v>
       </c>
     </row>
     <row r="93">
@@ -3581,31 +3581,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13.4204228520018</v>
+        <v>12.32717408009813</v>
       </c>
       <c r="C93" t="n">
-        <v>11.93716084505558</v>
+        <v>10.94861167058618</v>
       </c>
       <c r="D93" t="n">
-        <v>12.43</v>
+        <v>12.59</v>
       </c>
       <c r="E93" t="n">
-        <v>1.110521576734418</v>
+        <v>1.039346165104875</v>
       </c>
       <c r="F93" t="n">
-        <v>1.2718126957302</v>
+        <v>1.151310904864287</v>
       </c>
       <c r="G93" t="n">
-        <v>11.94736842105263</v>
+        <v>10.91688998881684</v>
       </c>
       <c r="H93" t="n">
-        <v>9.236842105263158</v>
+        <v>8.488104387881904</v>
       </c>
       <c r="I93" t="n">
-        <v>14.72222222222222</v>
+        <v>13.59784385802713</v>
       </c>
       <c r="J93" t="n">
-        <v>13.94736842105263</v>
+        <v>12.80586514670109</v>
       </c>
     </row>
     <row r="94">
@@ -3615,31 +3615,31 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6.762325686009897</v>
+        <v>6.200924118218768</v>
       </c>
       <c r="C94" t="n">
-        <v>6.018976871608451</v>
+        <v>5.516336537822371</v>
       </c>
       <c r="D94" t="n">
-        <v>12.35</v>
+        <v>12.41</v>
       </c>
       <c r="E94" t="n">
-        <v>1.057948555375176</v>
+        <v>0.9650634484037739</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8575968775652254</v>
+        <v>0.7856538831904591</v>
       </c>
       <c r="G94" t="n">
-        <v>5.236842105263158</v>
+        <v>4.786079901722366</v>
       </c>
       <c r="H94" t="n">
-        <v>4.756756756756757</v>
+        <v>4.349433226318947</v>
       </c>
       <c r="I94" t="n">
-        <v>8.026315789473685</v>
+        <v>7.318218931617918</v>
       </c>
       <c r="J94" t="n">
-        <v>7.368421052631579</v>
+        <v>6.761998167280336</v>
       </c>
     </row>
     <row r="95">
@@ -3649,31 +3649,31 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>16.4321412505623</v>
+        <v>15.09674225550958</v>
       </c>
       <c r="C95" t="n">
-        <v>14.66727516990675</v>
+        <v>13.45167137391572</v>
       </c>
       <c r="D95" t="n">
-        <v>12.03</v>
+        <v>12.23</v>
       </c>
       <c r="E95" t="n">
-        <v>2.092461759548031</v>
+        <v>1.994248415565192</v>
       </c>
       <c r="F95" t="n">
-        <v>1.692905493084479</v>
+        <v>1.53336766531341</v>
       </c>
       <c r="G95" t="n">
-        <v>13.78947368421053</v>
+        <v>12.62948490823974</v>
       </c>
       <c r="H95" t="n">
-        <v>11.5</v>
+        <v>10.56626700435164</v>
       </c>
       <c r="I95" t="n">
-        <v>18.69444444444444</v>
+        <v>17.24808320059583</v>
       </c>
       <c r="J95" t="n">
-        <v>17.32432432432432</v>
+        <v>15.99871893564307</v>
       </c>
     </row>
     <row r="96">
@@ -3683,31 +3683,31 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>7.933400809716599</v>
+        <v>7.274454615942773</v>
       </c>
       <c r="C96" t="n">
-        <v>7.102207470628523</v>
+        <v>6.508822787582656</v>
       </c>
       <c r="D96" t="n">
-        <v>11.7</v>
+        <v>11.76</v>
       </c>
       <c r="E96" t="n">
-        <v>1.041456378649324</v>
+        <v>0.9440848943742055</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9418947399455248</v>
+        <v>0.863506581073204</v>
       </c>
       <c r="G96" t="n">
-        <v>6.5</v>
+        <v>5.94820528864421</v>
       </c>
       <c r="H96" t="n">
-        <v>5.432432432432432</v>
+        <v>4.970208055620057</v>
       </c>
       <c r="I96" t="n">
-        <v>9.078947368421053</v>
+        <v>8.273908891525004</v>
       </c>
       <c r="J96" t="n">
-        <v>8.552631578947368</v>
+        <v>7.838564243392393</v>
       </c>
     </row>
     <row r="97">
@@ -3717,31 +3717,31 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>28.03803418803419</v>
+        <v>25.73999103280693</v>
       </c>
       <c r="C97" t="n">
-        <v>25.13203203203204</v>
+        <v>23.06855914033982</v>
       </c>
       <c r="D97" t="n">
-        <v>11.56</v>
+        <v>11.58</v>
       </c>
       <c r="E97" t="n">
-        <v>4.989196052389339</v>
+        <v>4.577319616026958</v>
       </c>
       <c r="F97" t="n">
-        <v>5.248561756380584</v>
+        <v>4.83351387139284</v>
       </c>
       <c r="G97" t="n">
-        <v>19.63157894736842</v>
+        <v>18.00238673100992</v>
       </c>
       <c r="H97" t="n">
-        <v>18.31578947368421</v>
+        <v>16.83177562600052</v>
       </c>
       <c r="I97" t="n">
-        <v>31.78947368421053</v>
+        <v>29.09392548066904</v>
       </c>
       <c r="J97" t="n">
-        <v>35.05263157894737</v>
+        <v>32.114691499519</v>
       </c>
     </row>
     <row r="98">
@@ -3751,31 +3751,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>17.30535312640576</v>
+        <v>15.87798191687726</v>
       </c>
       <c r="C98" t="n">
-        <v>15.61416943259048</v>
+        <v>14.32308824680901</v>
       </c>
       <c r="D98" t="n">
-        <v>10.83</v>
+        <v>10.86</v>
       </c>
       <c r="E98" t="n">
-        <v>6.098090794359739</v>
+        <v>5.577752348719614</v>
       </c>
       <c r="F98" t="n">
-        <v>2.372605349925791</v>
+        <v>2.190475733230332</v>
       </c>
       <c r="G98" t="n">
-        <v>12.57894736842105</v>
+        <v>11.53153759345422</v>
       </c>
       <c r="H98" t="n">
-        <v>11.86486486486486</v>
+        <v>10.852495828203</v>
       </c>
       <c r="I98" t="n">
-        <v>27.53846153846154</v>
+        <v>25.24932010015732</v>
       </c>
       <c r="J98" t="n">
-        <v>19.92105263157895</v>
+        <v>18.28032072371717</v>
       </c>
     </row>
     <row r="99">
@@ -3785,31 +3785,31 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.251089518668466</v>
+        <v>0.2306360954452236</v>
       </c>
       <c r="C99" t="n">
-        <v>0.230121726990148</v>
+        <v>0.2108708407320948</v>
       </c>
       <c r="D99" t="n">
-        <v>9.109999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0390381025135188</v>
+        <v>0.03737251100477135</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02499541264927572</v>
+        <v>0.02276293728477178</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2144736842105263</v>
+        <v>0.1962852758494151</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1715789473684211</v>
+        <v>0.1574606404790181</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3</v>
+        <v>0.2771502572257729</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2560526315789474</v>
+        <v>0.2346628232159705</v>
       </c>
     </row>
     <row r="100">
@@ -3819,31 +3819,31 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.213270355375619</v>
+        <v>2.029435058291404</v>
       </c>
       <c r="C100" t="n">
-        <v>2.033681049470523</v>
+        <v>1.864203829159842</v>
       </c>
       <c r="D100" t="n">
-        <v>8.83</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4041306939569712</v>
+        <v>0.3892165694711315</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3421142992555132</v>
+        <v>0.3107658616772666</v>
       </c>
       <c r="G100" t="n">
-        <v>1.736842105263158</v>
+        <v>1.567390102197457</v>
       </c>
       <c r="H100" t="n">
-        <v>1.368421052631579</v>
+        <v>1.263271673875154</v>
       </c>
       <c r="I100" t="n">
-        <v>2.722222222222222</v>
+        <v>2.518642675461245</v>
       </c>
       <c r="J100" t="n">
-        <v>2.378378378378379</v>
+        <v>2.178032748101367</v>
       </c>
     </row>
     <row r="101">
@@ -3853,99 +3853,99 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>11.4634278002699</v>
+        <v>10.53300711965388</v>
       </c>
       <c r="C101" t="n">
-        <v>10.64165217849428</v>
+        <v>9.75946497933195</v>
       </c>
       <c r="D101" t="n">
-        <v>7.72</v>
+        <v>7.93</v>
       </c>
       <c r="E101" t="n">
-        <v>1.89379062683588</v>
+        <v>1.765853364951215</v>
       </c>
       <c r="F101" t="n">
-        <v>2.38864077531794</v>
+        <v>2.183557251657719</v>
       </c>
       <c r="G101" t="n">
-        <v>9.948717948717949</v>
+        <v>9.130675895414067</v>
       </c>
       <c r="H101" t="n">
-        <v>8.026315789473685</v>
+        <v>7.376270637958244</v>
       </c>
       <c r="I101" t="n">
-        <v>14.5</v>
+        <v>13.40000972745042</v>
       </c>
       <c r="J101" t="n">
-        <v>16.05263157894737</v>
+        <v>14.72561017317956</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_per_match</t>
+          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>17.69777327935223</v>
+        <v>19.58451652731102</v>
       </c>
       <c r="C102" t="n">
-        <v>16.49259786101891</v>
+        <v>18.23371309111844</v>
       </c>
       <c r="D102" t="n">
-        <v>7.31</v>
+        <v>7.41</v>
       </c>
       <c r="E102" t="n">
-        <v>2.572489594924093</v>
+        <v>2.427796450665411</v>
       </c>
       <c r="F102" t="n">
-        <v>2.280650673132216</v>
+        <v>1.78071258321379</v>
       </c>
       <c r="G102" t="n">
-        <v>14.36842105263158</v>
+        <v>16.36700234092045</v>
       </c>
       <c r="H102" t="n">
-        <v>11.72972972972973</v>
+        <v>14.69699996069351</v>
       </c>
       <c r="I102" t="n">
-        <v>20.92307692307692</v>
+        <v>22.01905617906312</v>
       </c>
       <c r="J102" t="n">
-        <v>20.18421052631579</v>
+        <v>22.05374421664937</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_targeted_per_match</t>
+          <t>count_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>21.31900584795321</v>
+        <v>16.23184470338526</v>
       </c>
       <c r="C103" t="n">
-        <v>19.87980348769822</v>
+        <v>15.11448015374481</v>
       </c>
       <c r="D103" t="n">
-        <v>7.24</v>
+        <v>7.39</v>
       </c>
       <c r="E103" t="n">
-        <v>2.530901999165511</v>
+        <v>2.332117955981807</v>
       </c>
       <c r="F103" t="n">
-        <v>1.958037027437686</v>
+        <v>2.089024028044137</v>
       </c>
       <c r="G103" t="n">
-        <v>17.89473684210526</v>
+        <v>13.16717468153914</v>
       </c>
       <c r="H103" t="n">
-        <v>15.97368421052632</v>
+        <v>10.72130580126511</v>
       </c>
       <c r="I103" t="n">
-        <v>23.84210526315789</v>
+        <v>19.1869092485433</v>
       </c>
       <c r="J103" t="n">
-        <v>23.89189189189189</v>
+        <v>18.46698643085857</v>
       </c>
     </row>
     <row r="104">
@@ -3955,31 +3955,31 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>12.2644849302744</v>
+        <v>11.25764475765167</v>
       </c>
       <c r="C104" t="n">
-        <v>11.45638533270112</v>
+        <v>10.50069104219229</v>
       </c>
       <c r="D104" t="n">
-        <v>7.05</v>
+        <v>7.21</v>
       </c>
       <c r="E104" t="n">
-        <v>2.128837037746356</v>
+        <v>2.024835633905997</v>
       </c>
       <c r="F104" t="n">
-        <v>1.249827765872149</v>
+        <v>1.130129970459194</v>
       </c>
       <c r="G104" t="n">
-        <v>9.578947368421053</v>
+        <v>8.754897787722376</v>
       </c>
       <c r="H104" t="n">
-        <v>9.27027027027027</v>
+        <v>8.520735502306524</v>
       </c>
       <c r="I104" t="n">
-        <v>14.63888888888889</v>
+        <v>13.5192252156258</v>
       </c>
       <c r="J104" t="n">
-        <v>13.10526315789474</v>
+        <v>11.89709432762492</v>
       </c>
     </row>
     <row r="105">
@@ -3989,99 +3989,99 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.8395515069725595</v>
+        <v>0.7711705618937795</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7889471313418682</v>
+        <v>0.723244590881796</v>
       </c>
       <c r="D105" t="n">
-        <v>6.41</v>
+        <v>6.63</v>
       </c>
       <c r="E105" t="n">
-        <v>0.124123164651438</v>
+        <v>0.1176902005797782</v>
       </c>
       <c r="F105" t="n">
-        <v>0.07878688577715351</v>
+        <v>0.07118975220596477</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6521052631578947</v>
+        <v>0.596917562212136</v>
       </c>
       <c r="H105" t="n">
-        <v>0.64</v>
+        <v>0.5881133446998806</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9494444444444444</v>
+        <v>0.8774398233630581</v>
       </c>
       <c r="J105" t="n">
-        <v>0.8944736842105264</v>
+        <v>0.8223332272478734</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_threat_per_match</t>
+          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.01147143499775079</v>
+        <v>0.02424292941557912</v>
       </c>
       <c r="C106" t="n">
-        <v>0.01083177914756862</v>
+        <v>0.02280253096359526</v>
       </c>
       <c r="D106" t="n">
-        <v>5.91</v>
+        <v>6.32</v>
       </c>
       <c r="E106" t="n">
-        <v>0.002640483069501355</v>
+        <v>0.03446814003077334</v>
       </c>
       <c r="F106" t="n">
-        <v>0.002958973488409777</v>
+        <v>0.01910803549083634</v>
       </c>
       <c r="G106" t="n">
-        <v>0.008421052631578947</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.005263157894736842</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01487179487179487</v>
+        <v>0.07372817543313445</v>
       </c>
       <c r="J106" t="n">
-        <v>0.01526315789473684</v>
+        <v>0.0487455279654139</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pulling_wide_runs_targeted_per_match</t>
+          <t>dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.01048923051055166</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02489594858015911</v>
+        <v>0.009906694042188526</v>
       </c>
       <c r="D107" t="n">
-        <v>5.7</v>
+        <v>5.88</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03721614637823934</v>
+        <v>0.002427663608660715</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0211845518022079</v>
+        <v>0.002704896909487469</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.007710449805505826</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>0.004879746182642995</v>
       </c>
       <c r="I107" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.01366612817816458</v>
       </c>
       <c r="J107" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.01395567216144633</v>
       </c>
     </row>
     <row r="108">
@@ -4091,31 +4091,31 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>40.74057579847054</v>
+        <v>37.39164324804448</v>
       </c>
       <c r="C108" t="n">
-        <v>38.87156893735841</v>
+        <v>35.64298481480117</v>
       </c>
       <c r="D108" t="n">
-        <v>4.81</v>
+        <v>4.91</v>
       </c>
       <c r="E108" t="n">
-        <v>2.771449272835087</v>
+        <v>2.550438612469144</v>
       </c>
       <c r="F108" t="n">
-        <v>3.237249501605793</v>
+        <v>2.935167748547436</v>
       </c>
       <c r="G108" t="n">
-        <v>36.63157894736842</v>
+        <v>33.49346576812775</v>
       </c>
       <c r="H108" t="n">
-        <v>32.6578947368421</v>
+        <v>29.98281168719234</v>
       </c>
       <c r="I108" t="n">
-        <v>43.86842105263158</v>
+        <v>39.9515825521089</v>
       </c>
       <c r="J108" t="n">
-        <v>43.1578947368421</v>
+        <v>39.6103547417201</v>
       </c>
     </row>
     <row r="109">
@@ -4125,31 +4125,31 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>61.13789923526765</v>
+        <v>56.18004102023242</v>
       </c>
       <c r="C109" t="n">
-        <v>58.63569358832517</v>
+        <v>53.77651413698236</v>
       </c>
       <c r="D109" t="n">
-        <v>4.27</v>
+        <v>4.47</v>
       </c>
       <c r="E109" t="n">
-        <v>7.224311591018867</v>
+        <v>6.82289501347894</v>
       </c>
       <c r="F109" t="n">
-        <v>5.939708576745759</v>
+        <v>5.370869625977086</v>
       </c>
       <c r="G109" t="n">
-        <v>49.18421052631579</v>
+        <v>45.03601795229174</v>
       </c>
       <c r="H109" t="n">
-        <v>48.57894736842105</v>
+        <v>44.66897677736128</v>
       </c>
       <c r="I109" t="n">
-        <v>67.76315789473684</v>
+        <v>62.5285396807065</v>
       </c>
       <c r="J109" t="n">
-        <v>68.29729729729729</v>
+        <v>62.98268932724191</v>
       </c>
     </row>
     <row r="110">
@@ -4159,31 +4159,31 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.5054430949167791</v>
+        <v>0.4630520120463925</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5268795110900374</v>
+        <v>0.4814732057527685</v>
       </c>
       <c r="D110" t="n">
-        <v>-4.07</v>
+        <v>-3.83</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1826648412096884</v>
+        <v>0.1676029686824835</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1738222095353461</v>
+        <v>0.1583070916860401</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3132898371049146</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2935769611453536</v>
       </c>
       <c r="I110" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6662260151454031</v>
       </c>
       <c r="J110" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7598548979276023</v>
       </c>
     </row>
     <row r="111">
@@ -4193,31 +4193,31 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3.110413855150697</v>
+        <v>2.852516274302687</v>
       </c>
       <c r="C111" t="n">
-        <v>3.020241293925504</v>
+        <v>2.76694661518849</v>
       </c>
       <c r="D111" t="n">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6000433912226067</v>
+        <v>0.5746390915276467</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4524444539981153</v>
+        <v>0.4125704224629083</v>
       </c>
       <c r="G111" t="n">
-        <v>2.578947368421053</v>
+        <v>2.331723270592501</v>
       </c>
       <c r="H111" t="n">
-        <v>2.184210526315789</v>
+        <v>2.006129175632025</v>
       </c>
       <c r="I111" t="n">
-        <v>3.861111111111111</v>
+        <v>3.571124764926369</v>
       </c>
       <c r="J111" t="n">
-        <v>3.631578947368421</v>
+        <v>3.328116703622076</v>
       </c>
     </row>
   </sheetData>
